--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_9_35.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_9_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2268833.384563257</v>
+        <v>2267896.760855483</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1300254.006040611</v>
+        <v>1300254.00604061</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8170097.740689914</v>
+        <v>8170097.740689915</v>
       </c>
     </row>
     <row r="11">
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="F2" t="n">
-        <v>12.725494085322</v>
+        <v>193.5184989448065</v>
       </c>
       <c r="G2" t="n">
         <v>9.031127956876844</v>
@@ -712,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>189.4883835814583</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>144.9944454913849</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>229.9609751381512</v>
+        <v>42.95384504529575</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -904,16 +904,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>65.59588116322361</v>
       </c>
       <c r="F5" t="n">
-        <v>12.725494085322</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="G5" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -952,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>52.8703870779016</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -977,25 +977,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>116.6265468138852</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>133.5813703291298</v>
@@ -1031,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>79.08012240725678</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>89.73163134740373</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>216.9931099894119</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1138,19 +1138,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="E8" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="F8" t="n">
-        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="H8" t="n">
-        <v>189.8241328163614</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>8.78360153796395</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1211,19 +1211,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>101.0602290075064</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G9" t="n">
         <v>118.8592197488542</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.2879761613156643</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>76.09855113612963</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>128.3928558733791</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>302.60275942071</v>
       </c>
       <c r="D11" t="n">
-        <v>73.34623393413771</v>
+        <v>294.9457304341103</v>
       </c>
       <c r="E11" t="n">
         <v>311.9167025732322</v>
@@ -1390,7 +1390,7 @@
         <v>230.4909621921661</v>
       </c>
       <c r="I11" t="n">
-        <v>36.34569311165482</v>
+        <v>36.34569311165485</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>69.95181980001128</v>
+        <v>69.95181980001131</v>
       </c>
       <c r="T11" t="n">
         <v>133.0386984667112</v>
       </c>
       <c r="U11" t="n">
-        <v>166.5252322566633</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>252.0447541421281</v>
+        <v>196.9704898988185</v>
       </c>
       <c r="W11" t="n">
         <v>280.6480576200067</v>
       </c>
       <c r="X11" t="n">
-        <v>298.917091954885</v>
+        <v>298.9170919548851</v>
       </c>
       <c r="Y11" t="n">
         <v>305.8848149272162</v>
@@ -1469,7 +1469,7 @@
         <v>85.54235033284318</v>
       </c>
       <c r="I12" t="n">
-        <v>42.21948433871122</v>
+        <v>42.21948433871121</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>11.64275324645372</v>
+        <v>11.6427532464537</v>
       </c>
       <c r="S12" t="n">
         <v>129.9808666019048</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>96.71495144299953</v>
+        <v>96.71495144299958</v>
       </c>
       <c r="C13" t="n">
-        <v>81.86207969328194</v>
+        <v>81.86207969328198</v>
       </c>
       <c r="D13" t="n">
-        <v>67.43579490512167</v>
+        <v>67.43579490512171</v>
       </c>
       <c r="E13" t="n">
-        <v>67.36223695800078</v>
+        <v>67.36223695800082</v>
       </c>
       <c r="F13" t="n">
-        <v>69.11168837776805</v>
+        <v>69.11168837776809</v>
       </c>
       <c r="G13" t="n">
-        <v>79.76801687070059</v>
+        <v>79.76801687070063</v>
       </c>
       <c r="H13" t="n">
-        <v>65.83792190299147</v>
+        <v>65.83792190299151</v>
       </c>
       <c r="I13" t="n">
-        <v>40.23539229651925</v>
+        <v>40.23539229651929</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.71397752047685</v>
+        <v>28.71397752047689</v>
       </c>
       <c r="S13" t="n">
         <v>111.3148397699416</v>
       </c>
       <c r="T13" t="n">
-        <v>146.0265157807321</v>
+        <v>146.0265157807322</v>
       </c>
       <c r="U13" t="n">
-        <v>195.9345526284316</v>
+        <v>195.9345526284308</v>
       </c>
       <c r="V13" t="n">
         <v>176.6785646659953</v>
       </c>
       <c r="W13" t="n">
-        <v>193.8561109867454</v>
+        <v>193.8561109867455</v>
       </c>
       <c r="X13" t="n">
         <v>145.098531933458</v>
       </c>
       <c r="Y13" t="n">
-        <v>134.2399535101343</v>
+        <v>134.2399535101344</v>
       </c>
     </row>
     <row r="14">
@@ -1612,13 +1612,13 @@
         <v>302.60275942071</v>
       </c>
       <c r="D14" t="n">
-        <v>73.34623393413771</v>
+        <v>294.9457304341103</v>
       </c>
       <c r="E14" t="n">
         <v>311.9167025732322</v>
       </c>
       <c r="F14" t="n">
-        <v>326.0845070239333</v>
+        <v>104.4850105239601</v>
       </c>
       <c r="G14" t="n">
         <v>322.0278539992968</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>69.95181980001129</v>
+        <v>69.95181980001131</v>
       </c>
       <c r="T14" t="n">
-        <v>133.0386984667113</v>
+        <v>133.0386984667112</v>
       </c>
       <c r="U14" t="n">
-        <v>166.5252322566633</v>
+        <v>166.5252322566634</v>
       </c>
       <c r="V14" t="n">
         <v>252.0447541421281</v>
@@ -1672,7 +1672,7 @@
         <v>280.6480576200067</v>
       </c>
       <c r="X14" t="n">
-        <v>298.917091954885</v>
+        <v>298.9170919548851</v>
       </c>
       <c r="Y14" t="n">
         <v>305.8848149272162</v>
@@ -1706,7 +1706,7 @@
         <v>85.54235033284318</v>
       </c>
       <c r="I15" t="n">
-        <v>42.21948433871122</v>
+        <v>42.21948433871121</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>11.64275324645372</v>
+        <v>11.6427532464537</v>
       </c>
       <c r="S15" t="n">
         <v>129.9808666019048</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>96.71495144299955</v>
+        <v>96.71495144299958</v>
       </c>
       <c r="C16" t="n">
-        <v>81.86207969328196</v>
+        <v>81.86207969328198</v>
       </c>
       <c r="D16" t="n">
-        <v>67.43579490512168</v>
+        <v>67.43579490512171</v>
       </c>
       <c r="E16" t="n">
-        <v>67.36223695800079</v>
+        <v>67.36223695800082</v>
       </c>
       <c r="F16" t="n">
-        <v>69.11168837776806</v>
+        <v>69.11168837776809</v>
       </c>
       <c r="G16" t="n">
-        <v>79.76801687070061</v>
+        <v>79.76801687070063</v>
       </c>
       <c r="H16" t="n">
-        <v>65.83792190299148</v>
+        <v>65.83792190299151</v>
       </c>
       <c r="I16" t="n">
-        <v>40.23539229651927</v>
+        <v>40.23539229651929</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.71397752047693</v>
+        <v>28.71397752047625</v>
       </c>
       <c r="S16" t="n">
         <v>111.3148397699416</v>
@@ -1821,19 +1821,19 @@
         <v>146.0265157807322</v>
       </c>
       <c r="U16" t="n">
-        <v>195.9345526284317</v>
+        <v>195.9345526284316</v>
       </c>
       <c r="V16" t="n">
         <v>176.6785646659953</v>
       </c>
       <c r="W16" t="n">
-        <v>193.8561109867454</v>
+        <v>193.8561109867455</v>
       </c>
       <c r="X16" t="n">
         <v>145.098531933458</v>
       </c>
       <c r="Y16" t="n">
-        <v>134.2399535101343</v>
+        <v>134.2399535101344</v>
       </c>
     </row>
     <row r="17">
@@ -1855,7 +1855,7 @@
         <v>311.9167025732322</v>
       </c>
       <c r="F17" t="n">
-        <v>326.0845070239333</v>
+        <v>140.8307036356151</v>
       </c>
       <c r="G17" t="n">
         <v>322.0278539992968</v>
@@ -1864,7 +1864,7 @@
         <v>230.4909621921661</v>
       </c>
       <c r="I17" t="n">
-        <v>36.34569311165485</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>69.95181980001131</v>
       </c>
       <c r="T17" t="n">
-        <v>133.0386984667113</v>
+        <v>133.0386984667112</v>
       </c>
       <c r="U17" t="n">
         <v>166.5252322566634</v>
       </c>
       <c r="V17" t="n">
-        <v>100.3970774421664</v>
+        <v>252.0447541421281</v>
       </c>
       <c r="W17" t="n">
         <v>280.6480576200067</v>
@@ -1943,7 +1943,7 @@
         <v>85.54235033284318</v>
       </c>
       <c r="I18" t="n">
-        <v>42.21948433871121</v>
+        <v>42.2194843387112</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>11.64275324645371</v>
+        <v>11.6427532464537</v>
       </c>
       <c r="S18" t="n">
         <v>129.9808666019048</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>28.71397752047693</v>
+        <v>28.71397752047687</v>
       </c>
       <c r="S19" t="n">
-        <v>111.3148397699416</v>
+        <v>111.3148397699415</v>
       </c>
       <c r="T19" t="n">
         <v>146.0265157807322</v>
       </c>
       <c r="U19" t="n">
-        <v>195.9345526284306</v>
+        <v>195.934552628431</v>
       </c>
       <c r="V19" t="n">
         <v>176.6785646659953</v>
@@ -2098,10 +2098,10 @@
         <v>322.0278539992968</v>
       </c>
       <c r="H20" t="n">
-        <v>8.891465692192959</v>
+        <v>230.4909621921661</v>
       </c>
       <c r="I20" t="n">
-        <v>36.34569311165485</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>69.95181980001131</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>133.0386984667113</v>
+        <v>133.0386984667112</v>
       </c>
       <c r="U20" t="n">
-        <v>166.5252322566634</v>
+        <v>51.2232486683569</v>
       </c>
       <c r="V20" t="n">
         <v>252.0447541421281</v>
@@ -2180,7 +2180,7 @@
         <v>85.54235033284318</v>
       </c>
       <c r="I21" t="n">
-        <v>42.21948433871121</v>
+        <v>42.2194843387112</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>11.64275324645371</v>
+        <v>11.6427532464537</v>
       </c>
       <c r="S21" t="n">
         <v>129.9808666019048</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>28.71397752047715</v>
+        <v>28.71397752047688</v>
       </c>
       <c r="S22" t="n">
         <v>111.3148397699416</v>
@@ -2295,7 +2295,7 @@
         <v>146.0265157807322</v>
       </c>
       <c r="U22" t="n">
-        <v>195.9345526284306</v>
+        <v>195.9345526284316</v>
       </c>
       <c r="V22" t="n">
         <v>176.6785646659953</v>
@@ -2335,10 +2335,10 @@
         <v>322.0278539992968</v>
       </c>
       <c r="H23" t="n">
-        <v>8.891465692192959</v>
+        <v>230.4909621921661</v>
       </c>
       <c r="I23" t="n">
-        <v>36.34569311165486</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>69.95181980001131</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>133.0386984667113</v>
+        <v>17.73671487840453</v>
       </c>
       <c r="U23" t="n">
         <v>166.5252322566634</v>
@@ -2417,7 +2417,7 @@
         <v>85.54235033284318</v>
       </c>
       <c r="I24" t="n">
-        <v>42.21948433871121</v>
+        <v>42.2194843387112</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>11.64275324645371</v>
+        <v>11.6427532464537</v>
       </c>
       <c r="S24" t="n">
         <v>129.9808666019048</v>
@@ -2557,7 +2557,7 @@
         <v>309.8488111928942</v>
       </c>
       <c r="C26" t="n">
-        <v>302.6027594207101</v>
+        <v>302.60275942071</v>
       </c>
       <c r="D26" t="n">
         <v>294.9457304341103</v>
@@ -2566,16 +2566,16 @@
         <v>311.9167025732322</v>
       </c>
       <c r="F26" t="n">
-        <v>104.4850105239596</v>
+        <v>326.0845070239333</v>
       </c>
       <c r="G26" t="n">
-        <v>322.0278539992969</v>
+        <v>322.0278539992968</v>
       </c>
       <c r="H26" t="n">
         <v>230.4909621921661</v>
       </c>
       <c r="I26" t="n">
-        <v>36.3456931116549</v>
+        <v>36.34569311165485</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>69.95181980001135</v>
+        <v>69.95181980001131</v>
       </c>
       <c r="T26" t="n">
-        <v>133.0386984667113</v>
+        <v>133.0386984667112</v>
       </c>
       <c r="U26" t="n">
         <v>166.5252322566634</v>
       </c>
       <c r="V26" t="n">
-        <v>252.0447541421281</v>
+        <v>30.44525764215548</v>
       </c>
       <c r="W26" t="n">
         <v>280.6480576200067</v>
@@ -2654,7 +2654,7 @@
         <v>85.54235033284318</v>
       </c>
       <c r="I27" t="n">
-        <v>42.21948433871121</v>
+        <v>42.2194843387112</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>11.64275324645371</v>
+        <v>11.6427532464537</v>
       </c>
       <c r="S27" t="n">
         <v>129.9808666019048</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>96.71495144299962</v>
+        <v>96.71495144299958</v>
       </c>
       <c r="C28" t="n">
-        <v>81.86207969328203</v>
+        <v>81.86207969328113</v>
       </c>
       <c r="D28" t="n">
-        <v>67.43579490512175</v>
+        <v>67.43579490512171</v>
       </c>
       <c r="E28" t="n">
-        <v>67.36223695799914</v>
+        <v>67.36223695800082</v>
       </c>
       <c r="F28" t="n">
-        <v>69.11168837776813</v>
+        <v>69.11168837776809</v>
       </c>
       <c r="G28" t="n">
-        <v>79.76801687070068</v>
+        <v>79.76801687070063</v>
       </c>
       <c r="H28" t="n">
-        <v>65.83792190299155</v>
+        <v>65.83792190299151</v>
       </c>
       <c r="I28" t="n">
-        <v>40.23539229651934</v>
+        <v>40.23539229651929</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.71397752047693</v>
+        <v>28.71397752047688</v>
       </c>
       <c r="S28" t="n">
         <v>111.3148397699416</v>
@@ -2772,13 +2772,13 @@
         <v>195.9345526284316</v>
       </c>
       <c r="V28" t="n">
-        <v>176.6785646659954</v>
+        <v>176.6785646659953</v>
       </c>
       <c r="W28" t="n">
         <v>193.8561109867455</v>
       </c>
       <c r="X28" t="n">
-        <v>145.0985319334581</v>
+        <v>145.098531933458</v>
       </c>
       <c r="Y28" t="n">
         <v>134.2399535101344</v>
@@ -2806,13 +2806,13 @@
         <v>326.0845070239333</v>
       </c>
       <c r="G29" t="n">
-        <v>100.4283574993241</v>
+        <v>322.0278539992968</v>
       </c>
       <c r="H29" t="n">
         <v>230.4909621921661</v>
       </c>
       <c r="I29" t="n">
-        <v>36.34569311165489</v>
+        <v>36.34569311165485</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>69.95181980001134</v>
+        <v>69.95181980001131</v>
       </c>
       <c r="T29" t="n">
-        <v>133.0386984667113</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>166.5252322566634</v>
+        <v>77.9644342234018</v>
       </c>
       <c r="V29" t="n">
         <v>252.0447541421281</v>
@@ -2891,7 +2891,7 @@
         <v>85.54235033284318</v>
       </c>
       <c r="I30" t="n">
-        <v>42.21948433871121</v>
+        <v>42.2194843387112</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>11.64275324645371</v>
+        <v>11.6427532464537</v>
       </c>
       <c r="S30" t="n">
         <v>129.9808666019048</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>96.71495144299961</v>
+        <v>96.71495144299958</v>
       </c>
       <c r="C31" t="n">
-        <v>81.86207969328201</v>
+        <v>81.86207969328198</v>
       </c>
       <c r="D31" t="n">
-        <v>67.43579490512174</v>
+        <v>67.43579490512171</v>
       </c>
       <c r="E31" t="n">
-        <v>67.36223695800085</v>
+        <v>67.36223695800082</v>
       </c>
       <c r="F31" t="n">
-        <v>69.11168837776812</v>
+        <v>69.11168837776724</v>
       </c>
       <c r="G31" t="n">
-        <v>79.76801687070066</v>
+        <v>79.76801687070063</v>
       </c>
       <c r="H31" t="n">
-        <v>65.83792190299154</v>
+        <v>65.83792190299151</v>
       </c>
       <c r="I31" t="n">
-        <v>40.23539229651804</v>
+        <v>40.23539229651929</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.71397752047691</v>
+        <v>28.71397752047688</v>
       </c>
       <c r="S31" t="n">
         <v>111.3148397699416</v>
@@ -3046,10 +3046,10 @@
         <v>322.0278539992968</v>
       </c>
       <c r="H32" t="n">
-        <v>45.23715880384782</v>
+        <v>230.4909621921661</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>36.34569311165485</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,13 +3082,13 @@
         <v>69.95181980001131</v>
       </c>
       <c r="T32" t="n">
-        <v>133.0386984667113</v>
+        <v>133.0386984667112</v>
       </c>
       <c r="U32" t="n">
-        <v>166.5252322566634</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>252.0447541421281</v>
+        <v>196.9704898988189</v>
       </c>
       <c r="W32" t="n">
         <v>280.6480576200067</v>
@@ -3128,7 +3128,7 @@
         <v>85.54235033284318</v>
       </c>
       <c r="I33" t="n">
-        <v>42.21948433871121</v>
+        <v>42.2194843387112</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>11.64275324645371</v>
+        <v>11.6427532464537</v>
       </c>
       <c r="S33" t="n">
         <v>129.9808666019048</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>28.71397752047689</v>
+        <v>28.71397752047687</v>
       </c>
       <c r="S34" t="n">
         <v>111.3148397699416</v>
@@ -3243,7 +3243,7 @@
         <v>146.0265157807322</v>
       </c>
       <c r="U34" t="n">
-        <v>195.9345526284306</v>
+        <v>195.934552628431</v>
       </c>
       <c r="V34" t="n">
         <v>176.6785646659953</v>
@@ -3280,13 +3280,13 @@
         <v>326.0845070239333</v>
       </c>
       <c r="G35" t="n">
-        <v>100.4283574993237</v>
+        <v>322.0278539992968</v>
       </c>
       <c r="H35" t="n">
-        <v>230.4909621921661</v>
+        <v>8.891465692192959</v>
       </c>
       <c r="I35" t="n">
-        <v>36.34569311165486</v>
+        <v>36.34569311165485</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>294.9457304341103</v>
       </c>
       <c r="E38" t="n">
-        <v>311.9167025732322</v>
+        <v>126.662899184914</v>
       </c>
       <c r="F38" t="n">
         <v>326.0845070239333</v>
@@ -3520,10 +3520,10 @@
         <v>322.0278539992968</v>
       </c>
       <c r="H38" t="n">
-        <v>8.891465692192959</v>
+        <v>230.4909621921661</v>
       </c>
       <c r="I38" t="n">
-        <v>36.34569311165485</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3745,10 +3745,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>182.4369797069658</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
         <v>412.725494085322</v>
@@ -3757,10 +3757,10 @@
         <v>408.6688410606855</v>
       </c>
       <c r="H41" t="n">
-        <v>317.1319492535548</v>
+        <v>14.12285937280593</v>
       </c>
       <c r="I41" t="n">
-        <v>122.9866801730435</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,10 +3787,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>14.85548033445461</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>156.5928068614</v>
       </c>
       <c r="T41" t="n">
         <v>219.6796855281</v>
@@ -3799,16 +3799,16 @@
         <v>253.1662193180521</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -3906,10 +3906,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>152.4789089643802</v>
       </c>
       <c r="I43" t="n">
-        <v>126.876379357908</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3960,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>152.1647500372996</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>220.8809405715231</v>
+        <v>217.6755204988293</v>
       </c>
     </row>
     <row r="44">
@@ -3979,10 +3979,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>210.5695459546157</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
         <v>398.5576896346209</v>
@@ -3997,7 +3997,7 @@
         <v>317.1319492535548</v>
       </c>
       <c r="I44" t="n">
-        <v>122.9866801730435</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>14.85548033445461</v>
       </c>
       <c r="S44" t="n">
-        <v>156.5928068614</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>253.1662193180521</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>311.5741414923486</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -4137,10 +4137,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,16 +4149,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4090039320893</v>
       </c>
       <c r="H46" t="n">
-        <v>152.4789089643802</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>126.876379357908</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>18.58507080936572</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>115.3549645818656</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>197.9558268313303</v>
       </c>
       <c r="T46" t="n">
-        <v>196.0810362529247</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>282.5755396898203</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>69.55148661820023</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40.37326391226304</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="C2" t="n">
-        <v>40.37326391226304</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="D2" t="n">
-        <v>40.37326391226304</v>
+        <v>455.276274010885</v>
       </c>
       <c r="E2" t="n">
-        <v>40.37326391226304</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="F2" t="n">
         <v>27.51922948264486</v>
@@ -4330,25 +4330,25 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J2" t="n">
-        <v>163.0466509198802</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K2" t="n">
-        <v>163.0466509198802</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="L2" t="n">
-        <v>163.0466509198802</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="M2" t="n">
-        <v>163.0466509198802</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="N2" t="n">
-        <v>390.7080163066498</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="O2" t="n">
-        <v>618.3693816934194</v>
+        <v>692.182535165835</v>
       </c>
       <c r="P2" t="n">
-        <v>846.030747080189</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q2" t="n">
         <v>919.8439005526046</v>
@@ -4360,22 +4360,22 @@
         <v>919.8439005526046</v>
       </c>
       <c r="T2" t="n">
-        <v>696.3432981120213</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U2" t="n">
-        <v>696.3432981120213</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V2" t="n">
-        <v>504.9408904539827</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="W2" t="n">
-        <v>272.6570771831229</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="X2" t="n">
-        <v>272.6570771831229</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Y2" t="n">
-        <v>40.37326391226304</v>
+        <v>919.8439005526046</v>
       </c>
     </row>
     <row r="3">
@@ -4409,25 +4409,25 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J3" t="n">
-        <v>18.39687801105209</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="K3" t="n">
-        <v>246.0582433978217</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="L3" t="n">
-        <v>473.7196087845913</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="M3" t="n">
-        <v>473.7196087845913</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="N3" t="n">
-        <v>692.182535165835</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="O3" t="n">
-        <v>692.182535165835</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="P3" t="n">
-        <v>692.182535165835</v>
+        <v>814.4959563910883</v>
       </c>
       <c r="Q3" t="n">
         <v>919.8439005526046</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>308.8172381610012</v>
+        <v>344.2351090425481</v>
       </c>
       <c r="C4" t="n">
-        <v>308.8172381610012</v>
+        <v>174.0299911085373</v>
       </c>
       <c r="D4" t="n">
-        <v>308.8172381610012</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E4" t="n">
-        <v>308.8172381610012</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F4" t="n">
-        <v>151.4913033739742</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G4" t="n">
-        <v>151.4913033739742</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H4" t="n">
-        <v>151.4913033739742</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I4" t="n">
         <v>18.39687801105209</v>
@@ -4512,28 +4512,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R4" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="S4" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="T4" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="U4" t="n">
-        <v>687.5600872817448</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="V4" t="n">
-        <v>687.5600872817448</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="W4" t="n">
-        <v>541.101051431861</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="X4" t="n">
-        <v>308.8172381610012</v>
+        <v>752.5551889172061</v>
       </c>
       <c r="Y4" t="n">
-        <v>308.8172381610012</v>
+        <v>529.4431277338495</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>401.8718426190652</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="C5" t="n">
-        <v>401.8718426190652</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="D5" t="n">
-        <v>401.8718426190652</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="E5" t="n">
-        <v>401.8718426190652</v>
+        <v>853.5854347311666</v>
       </c>
       <c r="F5" t="n">
+        <v>621.3016214603068</v>
+      </c>
+      <c r="G5" t="n">
         <v>389.017808189447</v>
-      </c>
-      <c r="G5" t="n">
-        <v>156.7339949185873</v>
       </c>
       <c r="H5" t="n">
         <v>156.7339949185873</v>
@@ -4576,13 +4576,13 @@
         <v>618.3693816934194</v>
       </c>
       <c r="M5" t="n">
-        <v>618.3693816934194</v>
+        <v>846.030747080189</v>
       </c>
       <c r="N5" t="n">
-        <v>846.030747080189</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="O5" t="n">
-        <v>846.030747080189</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P5" t="n">
         <v>919.8439005526046</v>
@@ -4600,19 +4600,19 @@
         <v>919.8439005526046</v>
       </c>
       <c r="U5" t="n">
-        <v>866.4394691607848</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V5" t="n">
-        <v>634.155655889925</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="W5" t="n">
-        <v>634.155655889925</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="X5" t="n">
-        <v>634.155655889925</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.8718426190652</v>
+        <v>919.8439005526046</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18.39687801105209</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="C6" t="n">
-        <v>18.39687801105209</v>
+        <v>667.1086307111752</v>
       </c>
       <c r="D6" t="n">
-        <v>18.39687801105209</v>
+        <v>537.0196633326556</v>
       </c>
       <c r="E6" t="n">
-        <v>18.39687801105209</v>
+        <v>400.5731724435433</v>
       </c>
       <c r="F6" t="n">
-        <v>18.39687801105209</v>
+        <v>276.1413663266751</v>
       </c>
       <c r="G6" t="n">
-        <v>18.39687801105209</v>
+        <v>156.0815483985396</v>
       </c>
       <c r="H6" t="n">
-        <v>18.39687801105209</v>
+        <v>67.7841319991405</v>
       </c>
       <c r="I6" t="n">
         <v>18.39687801105209</v>
@@ -4649,49 +4649,49 @@
         <v>131.5118602307795</v>
       </c>
       <c r="K6" t="n">
-        <v>131.5118602307795</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="L6" t="n">
-        <v>131.5118602307795</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="M6" t="n">
-        <v>359.1732256175491</v>
+        <v>814.4959563910883</v>
       </c>
       <c r="N6" t="n">
-        <v>586.8345910043187</v>
+        <v>814.4959563910883</v>
       </c>
       <c r="O6" t="n">
-        <v>814.4959563910883</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P6" t="n">
-        <v>814.4959563910883</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q6" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R6" t="n">
-        <v>895.9268574506692</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S6" t="n">
-        <v>760.996180350538</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="T6" t="n">
-        <v>760.996180350538</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="U6" t="n">
-        <v>550.9330370291798</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="V6" t="n">
-        <v>328.3930354002468</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="W6" t="n">
-        <v>98.2757895335337</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="X6" t="n">
-        <v>98.2757895335337</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="Y6" t="n">
-        <v>18.39687801105209</v>
+        <v>784.9132234524734</v>
       </c>
     </row>
     <row r="7">
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>279.2400074070869</v>
+        <v>497.8428571498893</v>
       </c>
       <c r="C7" t="n">
-        <v>109.0348894730761</v>
+        <v>497.8428571498893</v>
       </c>
       <c r="D7" t="n">
-        <v>18.39687801105209</v>
+        <v>342.2097440524041</v>
       </c>
       <c r="E7" t="n">
-        <v>18.39687801105209</v>
+        <v>186.6509319116065</v>
       </c>
       <c r="F7" t="n">
-        <v>18.39687801105209</v>
+        <v>186.6509319116065</v>
       </c>
       <c r="G7" t="n">
         <v>18.39687801105209</v>
@@ -4752,25 +4752,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S7" t="n">
-        <v>919.8439005526046</v>
+        <v>717.0278167351539</v>
       </c>
       <c r="T7" t="n">
-        <v>919.8439005526046</v>
+        <v>717.0278167351539</v>
       </c>
       <c r="U7" t="n">
-        <v>919.8439005526046</v>
+        <v>717.0278167351539</v>
       </c>
       <c r="V7" t="n">
-        <v>919.8439005526046</v>
+        <v>497.8428571498893</v>
       </c>
       <c r="W7" t="n">
-        <v>919.8439005526046</v>
+        <v>497.8428571498893</v>
       </c>
       <c r="X7" t="n">
-        <v>687.5600872817448</v>
+        <v>497.8428571498893</v>
       </c>
       <c r="Y7" t="n">
-        <v>464.4480260983881</v>
+        <v>497.8428571498893</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>919.8439005526046</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="C8" t="n">
-        <v>919.8439005526046</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="D8" t="n">
-        <v>687.5600872817448</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="E8" t="n">
-        <v>455.276274010885</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="F8" t="n">
-        <v>442.4222395812668</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="G8" t="n">
-        <v>210.138426310407</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H8" t="n">
         <v>18.39687801105209</v>
@@ -4807,49 +4807,49 @@
         <v>163.0466509198802</v>
       </c>
       <c r="K8" t="n">
+        <v>163.0466509198802</v>
+      </c>
+      <c r="L8" t="n">
+        <v>163.0466509198802</v>
+      </c>
+      <c r="M8" t="n">
         <v>390.7080163066498</v>
       </c>
-      <c r="L8" t="n">
-        <v>618.3693816934194</v>
-      </c>
-      <c r="M8" t="n">
-        <v>618.3693816934194</v>
-      </c>
       <c r="N8" t="n">
-        <v>846.030747080189</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="O8" t="n">
-        <v>846.030747080189</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="P8" t="n">
-        <v>846.030747080189</v>
+        <v>734.998340411656</v>
       </c>
       <c r="Q8" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R8" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="S8" t="n">
-        <v>919.8439005526046</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="T8" t="n">
-        <v>919.8439005526046</v>
+        <v>491.8368293385938</v>
       </c>
       <c r="U8" t="n">
-        <v>919.8439005526046</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="V8" t="n">
-        <v>919.8439005526046</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="W8" t="n">
-        <v>919.8439005526046</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="X8" t="n">
-        <v>919.8439005526046</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="Y8" t="n">
-        <v>919.8439005526046</v>
+        <v>482.9645045527716</v>
       </c>
     </row>
     <row r="9">
@@ -4859,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>276.1413663266751</v>
+        <v>817.762861151083</v>
       </c>
       <c r="C9" t="n">
-        <v>276.1413663266751</v>
+        <v>667.1086307111752</v>
       </c>
       <c r="D9" t="n">
-        <v>276.1413663266751</v>
+        <v>537.0196633326556</v>
       </c>
       <c r="E9" t="n">
-        <v>276.1413663266751</v>
+        <v>400.5731724435433</v>
       </c>
       <c r="F9" t="n">
         <v>276.1413663266751</v>
@@ -4889,46 +4889,46 @@
         <v>18.39687801105209</v>
       </c>
       <c r="L9" t="n">
-        <v>18.39687801105209</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="M9" t="n">
-        <v>246.0582433978217</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="N9" t="n">
-        <v>464.5211697790654</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="O9" t="n">
         <v>692.182535165835</v>
       </c>
       <c r="P9" t="n">
-        <v>692.182535165835</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q9" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R9" t="n">
-        <v>895.9268574506692</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S9" t="n">
-        <v>895.6359724392393</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T9" t="n">
-        <v>895.6359724392393</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U9" t="n">
-        <v>685.572829117881</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V9" t="n">
-        <v>685.572829117881</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="W9" t="n">
-        <v>455.4555832511679</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="X9" t="n">
-        <v>455.4555832511679</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Y9" t="n">
-        <v>276.1413663266751</v>
+        <v>919.8439005526046</v>
       </c>
     </row>
     <row r="10">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>372.6623151829899</v>
+        <v>842.9766771827767</v>
       </c>
       <c r="C10" t="n">
-        <v>372.6623151829899</v>
+        <v>672.7715592487659</v>
       </c>
       <c r="D10" t="n">
-        <v>217.0292020855046</v>
+        <v>517.1384461512807</v>
       </c>
       <c r="E10" t="n">
-        <v>217.0292020855046</v>
+        <v>361.5796340104832</v>
       </c>
       <c r="F10" t="n">
-        <v>217.0292020855046</v>
+        <v>204.2536992234562</v>
       </c>
       <c r="G10" t="n">
-        <v>48.77514818495014</v>
+        <v>204.2536992234562</v>
       </c>
       <c r="H10" t="n">
         <v>48.77514818495014</v>
@@ -5004,10 +5004,10 @@
         <v>919.8439005526046</v>
       </c>
       <c r="X10" t="n">
-        <v>687.5600872817448</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Y10" t="n">
-        <v>557.8703338742912</v>
+        <v>919.8439005526046</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1689.498967081366</v>
+        <v>1913.336842333864</v>
       </c>
       <c r="C11" t="n">
-        <v>1383.839614131154</v>
+        <v>1607.677489383652</v>
       </c>
       <c r="D11" t="n">
-        <v>1309.752509147176</v>
+        <v>1309.752509147177</v>
       </c>
       <c r="E11" t="n">
-        <v>994.6851328105781</v>
+        <v>994.6851328105784</v>
       </c>
       <c r="F11" t="n">
-        <v>665.3068428874133</v>
+        <v>665.3068428874134</v>
       </c>
       <c r="G11" t="n">
-        <v>340.0261822820629</v>
+        <v>340.026182282063</v>
       </c>
       <c r="H11" t="n">
-        <v>107.2070285526022</v>
+        <v>107.2070285526023</v>
       </c>
       <c r="I11" t="n">
-        <v>70.49420722769834</v>
+        <v>70.49420722769835</v>
       </c>
       <c r="J11" t="n">
-        <v>245.5851411175896</v>
+        <v>245.5851411175892</v>
       </c>
       <c r="K11" t="n">
-        <v>650.1909063987353</v>
+        <v>650.190906398735</v>
       </c>
       <c r="L11" t="n">
         <v>1200.11107159427</v>
       </c>
       <c r="M11" t="n">
-        <v>1809.090236510098</v>
+        <v>1809.090236510099</v>
       </c>
       <c r="N11" t="n">
-        <v>2400.898839186173</v>
+        <v>2400.898839186174</v>
       </c>
       <c r="O11" t="n">
-        <v>2901.369293696352</v>
+        <v>2901.369293696353</v>
       </c>
       <c r="P11" t="n">
-        <v>3301.133121273498</v>
+        <v>3301.133121273499</v>
       </c>
       <c r="Q11" t="n">
-        <v>3524.710361384917</v>
+        <v>3524.710361384918</v>
       </c>
       <c r="R11" t="n">
-        <v>3524.710361384917</v>
+        <v>3524.710361384918</v>
       </c>
       <c r="S11" t="n">
         <v>3454.051957546522</v>
       </c>
       <c r="T11" t="n">
-        <v>3319.669433842773</v>
+        <v>3319.669433842774</v>
       </c>
       <c r="U11" t="n">
-        <v>3151.462128533012</v>
+        <v>3319.669433842774</v>
       </c>
       <c r="V11" t="n">
-        <v>2896.871467783388</v>
+        <v>3120.709343035886</v>
       </c>
       <c r="W11" t="n">
-        <v>2613.388581298533</v>
+        <v>2837.226456551031</v>
       </c>
       <c r="X11" t="n">
-        <v>2311.452124778447</v>
+        <v>2535.290000030945</v>
       </c>
       <c r="Y11" t="n">
-        <v>2002.477564245905</v>
+        <v>2226.315439498404</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>113.1401510041743</v>
       </c>
       <c r="I12" t="n">
-        <v>70.49420722769834</v>
+        <v>70.49420722769835</v>
       </c>
       <c r="J12" t="n">
-        <v>105.36176969315</v>
+        <v>109.9227951495307</v>
       </c>
       <c r="K12" t="n">
-        <v>456.0889082625766</v>
+        <v>460.6499337189574</v>
       </c>
       <c r="L12" t="n">
-        <v>981.3221742426171</v>
+        <v>985.8831996989978</v>
       </c>
       <c r="M12" t="n">
-        <v>1657.717457710756</v>
+        <v>1662.278483167137</v>
       </c>
       <c r="N12" t="n">
-        <v>2363.405985666418</v>
+        <v>1662.278483167137</v>
       </c>
       <c r="O12" t="n">
-        <v>2363.405985666418</v>
+        <v>1662.278483167137</v>
       </c>
       <c r="P12" t="n">
-        <v>2363.405985666418</v>
+        <v>2104.544750103881</v>
       </c>
       <c r="Q12" t="n">
         <v>2363.405985666418</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>546.871107232126</v>
+        <v>546.8711072321267</v>
       </c>
       <c r="C13" t="n">
-        <v>464.1821378449725</v>
+        <v>464.1821378449732</v>
       </c>
       <c r="D13" t="n">
-        <v>396.0651732943446</v>
+        <v>396.0651732943452</v>
       </c>
       <c r="E13" t="n">
-        <v>328.0225097004044</v>
+        <v>328.022509700405</v>
       </c>
       <c r="F13" t="n">
-        <v>258.2127234602347</v>
+        <v>258.2127234602352</v>
       </c>
       <c r="G13" t="n">
-        <v>177.6389690453859</v>
+        <v>177.638969045386</v>
       </c>
       <c r="H13" t="n">
-        <v>111.1360176282228</v>
+        <v>111.1360176282229</v>
       </c>
       <c r="I13" t="n">
-        <v>70.49420722769834</v>
+        <v>70.49420722769835</v>
       </c>
       <c r="J13" t="n">
-        <v>137.8695643172009</v>
+        <v>137.8695643172011</v>
       </c>
       <c r="K13" t="n">
-        <v>324.1710171943598</v>
+        <v>324.1710171943604</v>
       </c>
       <c r="L13" t="n">
-        <v>597.9923471433743</v>
+        <v>597.9923471433749</v>
       </c>
       <c r="M13" t="n">
-        <v>895.2778535019597</v>
+        <v>895.2778535019598</v>
       </c>
       <c r="N13" t="n">
         <v>1188.861755758784</v>
@@ -5232,19 +5232,19 @@
         <v>1498.914203361181</v>
       </c>
       <c r="U13" t="n">
-        <v>1301.000513837512</v>
+        <v>1301.000513837514</v>
       </c>
       <c r="V13" t="n">
-        <v>1122.537317205194</v>
+        <v>1122.537317205195</v>
       </c>
       <c r="W13" t="n">
-        <v>926.7230636832289</v>
+        <v>926.7230636832298</v>
       </c>
       <c r="X13" t="n">
-        <v>780.1588900130694</v>
+        <v>780.1588900130702</v>
       </c>
       <c r="Y13" t="n">
-        <v>644.56297737657</v>
+        <v>644.5629773765708</v>
       </c>
     </row>
     <row r="14">
@@ -5257,28 +5257,28 @@
         <v>1689.498967081366</v>
       </c>
       <c r="C14" t="n">
-        <v>1383.839614131154</v>
+        <v>1383.839614131153</v>
       </c>
       <c r="D14" t="n">
-        <v>1309.752509147176</v>
+        <v>1085.914633894678</v>
       </c>
       <c r="E14" t="n">
-        <v>994.6851328105781</v>
+        <v>770.8472575580802</v>
       </c>
       <c r="F14" t="n">
-        <v>665.3068428874133</v>
+        <v>665.3068428874134</v>
       </c>
       <c r="G14" t="n">
-        <v>340.0261822820629</v>
+        <v>340.026182282063</v>
       </c>
       <c r="H14" t="n">
-        <v>107.2070285526022</v>
+        <v>107.2070285526023</v>
       </c>
       <c r="I14" t="n">
-        <v>70.49420722769834</v>
+        <v>70.49420722769835</v>
       </c>
       <c r="J14" t="n">
-        <v>245.5851411175892</v>
+        <v>245.585141117589</v>
       </c>
       <c r="K14" t="n">
         <v>650.1909063987349</v>
@@ -5296,22 +5296,22 @@
         <v>2901.369293696352</v>
       </c>
       <c r="P14" t="n">
-        <v>3301.133121273498</v>
+        <v>3301.133121273499</v>
       </c>
       <c r="Q14" t="n">
-        <v>3524.710361384917</v>
+        <v>3524.710361384918</v>
       </c>
       <c r="R14" t="n">
-        <v>3524.710361384917</v>
+        <v>3524.710361384918</v>
       </c>
       <c r="S14" t="n">
         <v>3454.051957546522</v>
       </c>
       <c r="T14" t="n">
-        <v>3319.669433842773</v>
+        <v>3319.669433842774</v>
       </c>
       <c r="U14" t="n">
-        <v>3151.462128533012</v>
+        <v>3151.462128533013</v>
       </c>
       <c r="V14" t="n">
         <v>2896.871467783388</v>
@@ -5354,25 +5354,25 @@
         <v>113.1401510041743</v>
       </c>
       <c r="I15" t="n">
-        <v>70.49420722769834</v>
+        <v>70.49420722769835</v>
       </c>
       <c r="J15" t="n">
-        <v>70.49420722769834</v>
+        <v>70.49420722769835</v>
       </c>
       <c r="K15" t="n">
-        <v>70.49420722769834</v>
+        <v>421.2213457971251</v>
       </c>
       <c r="L15" t="n">
-        <v>595.7274732077387</v>
+        <v>423.7045085049775</v>
       </c>
       <c r="M15" t="n">
-        <v>595.7274732077387</v>
+        <v>1100.099791973117</v>
       </c>
       <c r="N15" t="n">
-        <v>1301.416001163401</v>
+        <v>1100.099791973117</v>
       </c>
       <c r="O15" t="n">
-        <v>1863.594692357422</v>
+        <v>1662.278483167137</v>
       </c>
       <c r="P15" t="n">
         <v>2104.544750103881</v>
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>546.8711072321265</v>
+        <v>546.8711072321266</v>
       </c>
       <c r="C16" t="n">
-        <v>464.1821378449731</v>
+        <v>464.1821378449732</v>
       </c>
       <c r="D16" t="n">
-        <v>396.0651732943451</v>
+        <v>396.0651732943452</v>
       </c>
       <c r="E16" t="n">
-        <v>328.0225097004048</v>
+        <v>328.022509700405</v>
       </c>
       <c r="F16" t="n">
-        <v>258.2127234602351</v>
+        <v>258.2127234602352</v>
       </c>
       <c r="G16" t="n">
         <v>177.638969045386</v>
       </c>
       <c r="H16" t="n">
-        <v>111.1360176282228</v>
+        <v>111.1360176282229</v>
       </c>
       <c r="I16" t="n">
-        <v>70.49420722769834</v>
+        <v>70.49420722769835</v>
       </c>
       <c r="J16" t="n">
-        <v>137.869564317201</v>
+        <v>137.8695643172011</v>
       </c>
       <c r="K16" t="n">
         <v>324.1710171943603</v>
@@ -5466,22 +5466,22 @@
         <v>1646.41573445283</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.914203361181</v>
+        <v>1498.914203361182</v>
       </c>
       <c r="U16" t="n">
         <v>1301.000513837513</v>
       </c>
       <c r="V16" t="n">
-        <v>1122.537317205194</v>
+        <v>1122.537317205195</v>
       </c>
       <c r="W16" t="n">
-        <v>926.7230636832292</v>
+        <v>926.7230636832297</v>
       </c>
       <c r="X16" t="n">
-        <v>780.1588900130696</v>
+        <v>780.15889001307</v>
       </c>
       <c r="Y16" t="n">
-        <v>644.5629773765705</v>
+        <v>644.5629773765706</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1913.336842333864</v>
+        <v>1689.498967081366</v>
       </c>
       <c r="C17" t="n">
-        <v>1607.677489383652</v>
+        <v>1383.839614131153</v>
       </c>
       <c r="D17" t="n">
-        <v>1309.752509147177</v>
+        <v>1085.914633894678</v>
       </c>
       <c r="E17" t="n">
-        <v>994.6851328105784</v>
+        <v>770.8472575580802</v>
       </c>
       <c r="F17" t="n">
-        <v>665.3068428874134</v>
+        <v>628.5940215625094</v>
       </c>
       <c r="G17" t="n">
-        <v>340.026182282063</v>
+        <v>303.3133609571591</v>
       </c>
       <c r="H17" t="n">
-        <v>107.2070285526023</v>
+        <v>70.49420722769835</v>
       </c>
       <c r="I17" t="n">
         <v>70.49420722769835</v>
       </c>
       <c r="J17" t="n">
-        <v>245.5851411175892</v>
+        <v>245.585141117589</v>
       </c>
       <c r="K17" t="n">
-        <v>650.190906398735</v>
+        <v>650.1909063987349</v>
       </c>
       <c r="L17" t="n">
         <v>1200.11107159427</v>
@@ -5542,25 +5542,25 @@
         <v>3524.710361384918</v>
       </c>
       <c r="S17" t="n">
-        <v>3524.710361384918</v>
+        <v>3454.051957546522</v>
       </c>
       <c r="T17" t="n">
-        <v>3390.327837681169</v>
+        <v>3319.669433842774</v>
       </c>
       <c r="U17" t="n">
-        <v>3222.120532371408</v>
+        <v>3151.462128533013</v>
       </c>
       <c r="V17" t="n">
-        <v>3120.709343035886</v>
+        <v>2896.871467783388</v>
       </c>
       <c r="W17" t="n">
-        <v>2837.226456551031</v>
+        <v>2613.388581298533</v>
       </c>
       <c r="X17" t="n">
-        <v>2535.290000030945</v>
+        <v>2311.452124778447</v>
       </c>
       <c r="Y17" t="n">
-        <v>2226.315439498404</v>
+        <v>2002.477564245905</v>
       </c>
     </row>
     <row r="18">
@@ -5594,19 +5594,19 @@
         <v>70.49420722769835</v>
       </c>
       <c r="J18" t="n">
-        <v>201.7397363849166</v>
+        <v>70.49420722769835</v>
       </c>
       <c r="K18" t="n">
-        <v>552.4668749543433</v>
+        <v>421.2213457971251</v>
       </c>
       <c r="L18" t="n">
-        <v>552.4668749543433</v>
+        <v>423.7045085049774</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.862158422482</v>
+        <v>1100.099791973117</v>
       </c>
       <c r="N18" t="n">
-        <v>1662.278483167137</v>
+        <v>1100.099791973117</v>
       </c>
       <c r="O18" t="n">
         <v>1662.278483167137</v>
@@ -5673,16 +5673,16 @@
         <v>70.49420722769835</v>
       </c>
       <c r="J19" t="n">
-        <v>137.869564317201</v>
+        <v>137.8695643172011</v>
       </c>
       <c r="K19" t="n">
-        <v>324.1710171943603</v>
+        <v>324.1710171943604</v>
       </c>
       <c r="L19" t="n">
-        <v>597.9923471433748</v>
+        <v>597.9923471433749</v>
       </c>
       <c r="M19" t="n">
-        <v>895.2778535019595</v>
+        <v>895.2778535019598</v>
       </c>
       <c r="N19" t="n">
         <v>1188.861755758784</v>
@@ -5697,10 +5697,10 @@
         <v>1787.858984241131</v>
       </c>
       <c r="R19" t="n">
-        <v>1758.854966543679</v>
+        <v>1758.85496654368</v>
       </c>
       <c r="S19" t="n">
-        <v>1646.415734452829</v>
+        <v>1646.41573445283</v>
       </c>
       <c r="T19" t="n">
         <v>1498.914203361181</v>
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1689.498967081366</v>
+        <v>1876.62402100896</v>
       </c>
       <c r="C20" t="n">
-        <v>1383.839614131153</v>
+        <v>1570.964668058748</v>
       </c>
       <c r="D20" t="n">
-        <v>1085.914633894678</v>
+        <v>1273.039687822273</v>
       </c>
       <c r="E20" t="n">
-        <v>770.8472575580802</v>
+        <v>957.9723114856744</v>
       </c>
       <c r="F20" t="n">
-        <v>441.4689676349152</v>
+        <v>628.5940215625094</v>
       </c>
       <c r="G20" t="n">
-        <v>116.1883070295648</v>
+        <v>303.3133609571591</v>
       </c>
       <c r="H20" t="n">
-        <v>107.2070285526023</v>
+        <v>70.49420722769835</v>
       </c>
       <c r="I20" t="n">
         <v>70.49420722769835</v>
       </c>
       <c r="J20" t="n">
-        <v>245.585141117589</v>
+        <v>245.5851411175892</v>
       </c>
       <c r="K20" t="n">
-        <v>650.1909063987349</v>
+        <v>650.190906398735</v>
       </c>
       <c r="L20" t="n">
         <v>1200.11107159427</v>
@@ -5764,10 +5764,10 @@
         <v>1809.090236510098</v>
       </c>
       <c r="N20" t="n">
-        <v>2400.898839186173</v>
+        <v>2400.898839186174</v>
       </c>
       <c r="O20" t="n">
-        <v>2901.369293696352</v>
+        <v>2901.369293696353</v>
       </c>
       <c r="P20" t="n">
         <v>3301.133121273499</v>
@@ -5779,25 +5779,25 @@
         <v>3524.710361384918</v>
       </c>
       <c r="S20" t="n">
-        <v>3454.051957546522</v>
+        <v>3524.710361384918</v>
       </c>
       <c r="T20" t="n">
-        <v>3319.669433842774</v>
+        <v>3390.327837681169</v>
       </c>
       <c r="U20" t="n">
-        <v>3151.462128533013</v>
+        <v>3338.587182460607</v>
       </c>
       <c r="V20" t="n">
-        <v>2896.871467783388</v>
+        <v>3083.996521710982</v>
       </c>
       <c r="W20" t="n">
-        <v>2613.388581298533</v>
+        <v>2800.513635226127</v>
       </c>
       <c r="X20" t="n">
-        <v>2311.452124778447</v>
+        <v>2498.577178706041</v>
       </c>
       <c r="Y20" t="n">
-        <v>2002.477564245905</v>
+        <v>2189.602618173499</v>
       </c>
     </row>
     <row r="21">
@@ -5831,16 +5831,16 @@
         <v>70.49420722769835</v>
       </c>
       <c r="J21" t="n">
-        <v>70.49420722769835</v>
+        <v>201.7397363849166</v>
       </c>
       <c r="K21" t="n">
-        <v>70.49420722769835</v>
+        <v>552.4668749543433</v>
       </c>
       <c r="L21" t="n">
-        <v>595.7274732077387</v>
+        <v>1077.700140934384</v>
       </c>
       <c r="M21" t="n">
-        <v>1100.099791973117</v>
+        <v>1077.700140934384</v>
       </c>
       <c r="N21" t="n">
         <v>1100.099791973117</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>546.8711072321269</v>
+        <v>546.8711072321266</v>
       </c>
       <c r="C22" t="n">
-        <v>464.1821378449733</v>
+        <v>464.1821378449732</v>
       </c>
       <c r="D22" t="n">
-        <v>396.0651732943454</v>
+        <v>396.0651732943452</v>
       </c>
       <c r="E22" t="n">
-        <v>328.0225097004051</v>
+        <v>328.022509700405</v>
       </c>
       <c r="F22" t="n">
-        <v>258.2127234602353</v>
+        <v>258.2127234602352</v>
       </c>
       <c r="G22" t="n">
         <v>177.638969045386</v>
@@ -5922,25 +5922,25 @@
         <v>895.2778535019597</v>
       </c>
       <c r="N22" t="n">
-        <v>1188.861755758784</v>
+        <v>1188.861755758785</v>
       </c>
       <c r="O22" t="n">
-        <v>1460.081369474407</v>
+        <v>1460.081369474408</v>
       </c>
       <c r="P22" t="n">
-        <v>1685.190341487534</v>
+        <v>1685.190341487535</v>
       </c>
       <c r="Q22" t="n">
-        <v>1787.858984241131</v>
+        <v>1787.858984241132</v>
       </c>
       <c r="R22" t="n">
-        <v>1758.854966543679</v>
+        <v>1758.85496654368</v>
       </c>
       <c r="S22" t="n">
-        <v>1646.415734452829</v>
+        <v>1646.41573445283</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.914203361181</v>
+        <v>1498.914203361182</v>
       </c>
       <c r="U22" t="n">
         <v>1301.000513837513</v>
@@ -5949,13 +5949,13 @@
         <v>1122.537317205195</v>
       </c>
       <c r="W22" t="n">
-        <v>926.7230636832298</v>
+        <v>926.7230636832297</v>
       </c>
       <c r="X22" t="n">
-        <v>780.1588900130703</v>
+        <v>780.15889001307</v>
       </c>
       <c r="Y22" t="n">
-        <v>644.5629773765709</v>
+        <v>644.5629773765706</v>
       </c>
     </row>
     <row r="23">
@@ -5965,46 +5965,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1689.498967081366</v>
+        <v>1876.62402100896</v>
       </c>
       <c r="C23" t="n">
-        <v>1383.839614131153</v>
+        <v>1570.964668058748</v>
       </c>
       <c r="D23" t="n">
-        <v>1085.914633894678</v>
+        <v>1273.039687822273</v>
       </c>
       <c r="E23" t="n">
-        <v>770.8472575580802</v>
+        <v>957.9723114856744</v>
       </c>
       <c r="F23" t="n">
-        <v>441.4689676349152</v>
+        <v>628.5940215625094</v>
       </c>
       <c r="G23" t="n">
-        <v>116.1883070295648</v>
+        <v>303.3133609571591</v>
       </c>
       <c r="H23" t="n">
-        <v>107.2070285526023</v>
+        <v>70.49420722769835</v>
       </c>
       <c r="I23" t="n">
         <v>70.49420722769835</v>
       </c>
       <c r="J23" t="n">
-        <v>245.5851411175895</v>
+        <v>245.585141117589</v>
       </c>
       <c r="K23" t="n">
-        <v>650.1909063987355</v>
+        <v>650.1909063987349</v>
       </c>
       <c r="L23" t="n">
-        <v>1200.111071594271</v>
+        <v>1200.11107159427</v>
       </c>
       <c r="M23" t="n">
-        <v>1809.090236510099</v>
+        <v>1809.090236510098</v>
       </c>
       <c r="N23" t="n">
-        <v>2400.898839186174</v>
+        <v>2400.898839186173</v>
       </c>
       <c r="O23" t="n">
-        <v>2901.369293696353</v>
+        <v>2901.369293696352</v>
       </c>
       <c r="P23" t="n">
         <v>3301.133121273499</v>
@@ -6016,25 +6016,25 @@
         <v>3524.710361384918</v>
       </c>
       <c r="S23" t="n">
-        <v>3454.051957546522</v>
+        <v>3524.710361384918</v>
       </c>
       <c r="T23" t="n">
-        <v>3319.669433842774</v>
+        <v>3506.794487770368</v>
       </c>
       <c r="U23" t="n">
-        <v>3151.462128533013</v>
+        <v>3338.587182460607</v>
       </c>
       <c r="V23" t="n">
-        <v>2896.871467783388</v>
+        <v>3083.996521710982</v>
       </c>
       <c r="W23" t="n">
-        <v>2613.388581298533</v>
+        <v>2800.513635226127</v>
       </c>
       <c r="X23" t="n">
-        <v>2311.452124778447</v>
+        <v>2498.577178706041</v>
       </c>
       <c r="Y23" t="n">
-        <v>2002.477564245905</v>
+        <v>2189.602618173499</v>
       </c>
     </row>
     <row r="24">
@@ -6071,13 +6071,13 @@
         <v>201.7397363849166</v>
       </c>
       <c r="K24" t="n">
-        <v>201.7397363849166</v>
+        <v>552.4668749543433</v>
       </c>
       <c r="L24" t="n">
-        <v>201.7397363849166</v>
+        <v>552.4668749543433</v>
       </c>
       <c r="M24" t="n">
-        <v>394.4112640174543</v>
+        <v>552.4668749543433</v>
       </c>
       <c r="N24" t="n">
         <v>1100.099791973117</v>
@@ -6147,25 +6147,25 @@
         <v>70.49420722769835</v>
       </c>
       <c r="J25" t="n">
-        <v>137.8695643172018</v>
+        <v>137.8695643172011</v>
       </c>
       <c r="K25" t="n">
-        <v>324.171017194361</v>
+        <v>324.1710171943603</v>
       </c>
       <c r="L25" t="n">
-        <v>597.9923471433755</v>
+        <v>597.9923471433748</v>
       </c>
       <c r="M25" t="n">
-        <v>895.2778535019604</v>
+        <v>895.2778535019597</v>
       </c>
       <c r="N25" t="n">
-        <v>1188.861755758785</v>
+        <v>1188.861755758784</v>
       </c>
       <c r="O25" t="n">
-        <v>1460.081369474408</v>
+        <v>1460.081369474407</v>
       </c>
       <c r="P25" t="n">
-        <v>1685.190341487535</v>
+        <v>1685.190341487534</v>
       </c>
       <c r="Q25" t="n">
         <v>1787.858984241132</v>
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1689.498967081365</v>
+        <v>1913.336842333864</v>
       </c>
       <c r="C26" t="n">
-        <v>1383.839614131153</v>
+        <v>1607.677489383651</v>
       </c>
       <c r="D26" t="n">
-        <v>1085.914633894678</v>
+        <v>1309.752509147176</v>
       </c>
       <c r="E26" t="n">
-        <v>770.8472575580797</v>
+        <v>994.6851328105782</v>
       </c>
       <c r="F26" t="n">
-        <v>665.3068428874135</v>
+        <v>665.3068428874133</v>
       </c>
       <c r="G26" t="n">
-        <v>340.0261822820631</v>
+        <v>340.026182282063</v>
       </c>
       <c r="H26" t="n">
-        <v>107.2070285526023</v>
+        <v>107.2070285526022</v>
       </c>
       <c r="I26" t="n">
         <v>70.49420722769835</v>
       </c>
       <c r="J26" t="n">
-        <v>245.5851411175892</v>
+        <v>245.5851411175893</v>
       </c>
       <c r="K26" t="n">
-        <v>650.190906398735</v>
+        <v>650.1909063987351</v>
       </c>
       <c r="L26" t="n">
         <v>1200.11107159427</v>
@@ -6238,7 +6238,7 @@
         <v>1809.090236510098</v>
       </c>
       <c r="N26" t="n">
-        <v>2400.898839186174</v>
+        <v>2400.898839186173</v>
       </c>
       <c r="O26" t="n">
         <v>2901.369293696353</v>
@@ -6256,22 +6256,22 @@
         <v>3454.051957546522</v>
       </c>
       <c r="T26" t="n">
-        <v>3319.669433842773</v>
+        <v>3319.669433842774</v>
       </c>
       <c r="U26" t="n">
-        <v>3151.462128533012</v>
+        <v>3151.462128533013</v>
       </c>
       <c r="V26" t="n">
-        <v>2896.871467783388</v>
+        <v>3120.709343035886</v>
       </c>
       <c r="W26" t="n">
-        <v>2613.388581298532</v>
+        <v>2837.22645655103</v>
       </c>
       <c r="X26" t="n">
-        <v>2311.452124778446</v>
+        <v>2535.290000030945</v>
       </c>
       <c r="Y26" t="n">
-        <v>2002.477564245905</v>
+        <v>2226.315439498403</v>
       </c>
     </row>
     <row r="27">
@@ -6311,16 +6311,16 @@
         <v>552.4668749543433</v>
       </c>
       <c r="L27" t="n">
-        <v>722.4609386800793</v>
+        <v>1077.700140934384</v>
       </c>
       <c r="M27" t="n">
-        <v>1398.856222148218</v>
+        <v>1100.099791973117</v>
       </c>
       <c r="N27" t="n">
-        <v>2104.544750103881</v>
+        <v>1100.099791973117</v>
       </c>
       <c r="O27" t="n">
-        <v>2104.544750103881</v>
+        <v>1662.278483167137</v>
       </c>
       <c r="P27" t="n">
         <v>2104.544750103881</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>546.8711072321253</v>
+        <v>546.8711072321258</v>
       </c>
       <c r="C28" t="n">
-        <v>464.1821378449717</v>
+        <v>464.1821378449732</v>
       </c>
       <c r="D28" t="n">
-        <v>396.0651732943437</v>
+        <v>396.0651732943452</v>
       </c>
       <c r="E28" t="n">
-        <v>328.0225097004051</v>
+        <v>328.022509700405</v>
       </c>
       <c r="F28" t="n">
-        <v>258.2127234602353</v>
+        <v>258.2127234602352</v>
       </c>
       <c r="G28" t="n">
-        <v>177.6389690453861</v>
+        <v>177.638969045386</v>
       </c>
       <c r="H28" t="n">
         <v>111.1360176282229</v>
@@ -6390,10 +6390,10 @@
         <v>324.1710171943603</v>
       </c>
       <c r="L28" t="n">
-        <v>597.9923471433747</v>
+        <v>597.9923471433748</v>
       </c>
       <c r="M28" t="n">
-        <v>895.2778535019595</v>
+        <v>895.2778535019597</v>
       </c>
       <c r="N28" t="n">
         <v>1188.861755758784</v>
@@ -6408,28 +6408,28 @@
         <v>1787.858984241131</v>
       </c>
       <c r="R28" t="n">
-        <v>1758.854966543679</v>
+        <v>1758.85496654368</v>
       </c>
       <c r="S28" t="n">
-        <v>1646.415734452829</v>
+        <v>1646.41573445283</v>
       </c>
       <c r="T28" t="n">
         <v>1498.914203361181</v>
       </c>
       <c r="U28" t="n">
-        <v>1301.000513837512</v>
+        <v>1301.000513837513</v>
       </c>
       <c r="V28" t="n">
         <v>1122.537317205194</v>
       </c>
       <c r="W28" t="n">
-        <v>926.7230636832285</v>
+        <v>926.7230636832289</v>
       </c>
       <c r="X28" t="n">
-        <v>780.1588900130688</v>
+        <v>780.1588900130693</v>
       </c>
       <c r="Y28" t="n">
-        <v>644.5629773765694</v>
+        <v>644.5629773765698</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1689.498967081366</v>
+        <v>1913.336842333864</v>
       </c>
       <c r="C29" t="n">
-        <v>1383.839614131154</v>
+        <v>1607.677489383652</v>
       </c>
       <c r="D29" t="n">
-        <v>1085.914633894679</v>
+        <v>1309.752509147177</v>
       </c>
       <c r="E29" t="n">
-        <v>770.8472575580806</v>
+        <v>994.6851328105784</v>
       </c>
       <c r="F29" t="n">
-        <v>441.4689676349157</v>
+        <v>665.3068428874134</v>
       </c>
       <c r="G29" t="n">
         <v>340.026182282063</v>
@@ -6463,13 +6463,13 @@
         <v>70.49420722769837</v>
       </c>
       <c r="J29" t="n">
-        <v>245.5851411175897</v>
+        <v>245.5851411175898</v>
       </c>
       <c r="K29" t="n">
-        <v>650.1909063987355</v>
+        <v>650.1909063987356</v>
       </c>
       <c r="L29" t="n">
-        <v>1200.111071594271</v>
+        <v>1200.11107159427</v>
       </c>
       <c r="M29" t="n">
         <v>1809.090236510099</v>
@@ -6493,22 +6493,22 @@
         <v>3454.051957546523</v>
       </c>
       <c r="T29" t="n">
-        <v>3319.669433842774</v>
+        <v>3454.051957546523</v>
       </c>
       <c r="U29" t="n">
-        <v>3151.462128533013</v>
+        <v>3375.300003785511</v>
       </c>
       <c r="V29" t="n">
-        <v>2896.871467783389</v>
+        <v>3120.709343035886</v>
       </c>
       <c r="W29" t="n">
-        <v>2613.388581298533</v>
+        <v>2837.226456551031</v>
       </c>
       <c r="X29" t="n">
-        <v>2311.452124778447</v>
+        <v>2535.290000030945</v>
       </c>
       <c r="Y29" t="n">
-        <v>2002.477564245906</v>
+        <v>2226.315439498404</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>70.49420722769837</v>
       </c>
       <c r="J30" t="n">
-        <v>201.7397363849166</v>
+        <v>70.49420722769837</v>
       </c>
       <c r="K30" t="n">
-        <v>552.4668749543433</v>
+        <v>70.49420722769837</v>
       </c>
       <c r="L30" t="n">
-        <v>1077.700140934384</v>
+        <v>419.1434830485964</v>
       </c>
       <c r="M30" t="n">
-        <v>1100.099791973117</v>
+        <v>1095.538766516736</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.099791973117</v>
+        <v>1801.227294472398</v>
       </c>
       <c r="O30" t="n">
-        <v>1662.278483167137</v>
+        <v>2363.405985666418</v>
       </c>
       <c r="P30" t="n">
-        <v>2104.544750103881</v>
+        <v>2363.405985666418</v>
       </c>
       <c r="Q30" t="n">
         <v>2363.405985666418</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>546.8711072321256</v>
+        <v>546.8711072321258</v>
       </c>
       <c r="C31" t="n">
-        <v>464.1821378449721</v>
+        <v>464.1821378449723</v>
       </c>
       <c r="D31" t="n">
-        <v>396.065173294344</v>
+        <v>396.0651732943443</v>
       </c>
       <c r="E31" t="n">
-        <v>328.0225097004038</v>
+        <v>328.0225097004041</v>
       </c>
       <c r="F31" t="n">
-        <v>258.212723460234</v>
+        <v>258.2127234602352</v>
       </c>
       <c r="G31" t="n">
-        <v>177.6389690453848</v>
+        <v>177.638969045386</v>
       </c>
       <c r="H31" t="n">
-        <v>111.1360176282216</v>
+        <v>111.1360176282229</v>
       </c>
       <c r="I31" t="n">
         <v>70.49420722769837</v>
@@ -6624,13 +6624,13 @@
         <v>137.8695643172011</v>
       </c>
       <c r="K31" t="n">
-        <v>324.1710171943603</v>
+        <v>324.1710171943604</v>
       </c>
       <c r="L31" t="n">
-        <v>597.9923471433748</v>
+        <v>597.9923471433749</v>
       </c>
       <c r="M31" t="n">
-        <v>895.2778535019597</v>
+        <v>895.2778535019598</v>
       </c>
       <c r="N31" t="n">
         <v>1188.861755758784</v>
@@ -6654,19 +6654,19 @@
         <v>1498.914203361181</v>
       </c>
       <c r="U31" t="n">
-        <v>1301.000513837512</v>
+        <v>1301.000513837513</v>
       </c>
       <c r="V31" t="n">
         <v>1122.537317205194</v>
       </c>
       <c r="W31" t="n">
-        <v>926.7230636832287</v>
+        <v>926.7230636832289</v>
       </c>
       <c r="X31" t="n">
-        <v>780.158890013069</v>
+        <v>780.1588900130693</v>
       </c>
       <c r="Y31" t="n">
-        <v>644.5629773765696</v>
+        <v>644.5629773765698</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1689.498967081366</v>
+        <v>1913.336842333864</v>
       </c>
       <c r="C32" t="n">
-        <v>1383.839614131153</v>
+        <v>1607.677489383652</v>
       </c>
       <c r="D32" t="n">
-        <v>1085.914633894678</v>
+        <v>1309.752509147177</v>
       </c>
       <c r="E32" t="n">
-        <v>770.8472575580802</v>
+        <v>994.6851328105784</v>
       </c>
       <c r="F32" t="n">
-        <v>441.4689676349152</v>
+        <v>665.3068428874134</v>
       </c>
       <c r="G32" t="n">
-        <v>116.1883070295648</v>
+        <v>340.026182282063</v>
       </c>
       <c r="H32" t="n">
-        <v>70.49420722769835</v>
+        <v>107.2070285526023</v>
       </c>
       <c r="I32" t="n">
-        <v>70.49420722769835</v>
+        <v>70.49420722769837</v>
       </c>
       <c r="J32" t="n">
-        <v>245.5851411175895</v>
+        <v>245.58514111759</v>
       </c>
       <c r="K32" t="n">
         <v>650.1909063987355</v>
       </c>
       <c r="L32" t="n">
-        <v>1200.111071594271</v>
+        <v>1200.11107159427</v>
       </c>
       <c r="M32" t="n">
         <v>1809.090236510099</v>
@@ -6727,25 +6727,25 @@
         <v>3524.710361384918</v>
       </c>
       <c r="S32" t="n">
-        <v>3454.051957546522</v>
+        <v>3454.051957546523</v>
       </c>
       <c r="T32" t="n">
         <v>3319.669433842774</v>
       </c>
       <c r="U32" t="n">
-        <v>3151.462128533013</v>
+        <v>3319.669433842774</v>
       </c>
       <c r="V32" t="n">
-        <v>2896.871467783388</v>
+        <v>3120.709343035886</v>
       </c>
       <c r="W32" t="n">
-        <v>2613.388581298533</v>
+        <v>2837.226456551031</v>
       </c>
       <c r="X32" t="n">
-        <v>2311.452124778447</v>
+        <v>2535.290000030945</v>
       </c>
       <c r="Y32" t="n">
-        <v>2002.477564245905</v>
+        <v>2226.315439498404</v>
       </c>
     </row>
     <row r="33">
@@ -6776,19 +6776,19 @@
         <v>113.1401510041743</v>
       </c>
       <c r="I33" t="n">
-        <v>70.49420722769835</v>
+        <v>70.49420722769837</v>
       </c>
       <c r="J33" t="n">
-        <v>70.49420722769835</v>
+        <v>201.7397363849166</v>
       </c>
       <c r="K33" t="n">
-        <v>394.4112640174543</v>
+        <v>552.4668749543433</v>
       </c>
       <c r="L33" t="n">
-        <v>394.4112640174543</v>
+        <v>1077.700140934384</v>
       </c>
       <c r="M33" t="n">
-        <v>394.4112640174543</v>
+        <v>1077.700140934384</v>
       </c>
       <c r="N33" t="n">
         <v>1100.099791973117</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>546.8711072321267</v>
+        <v>546.8711072321269</v>
       </c>
       <c r="C34" t="n">
-        <v>464.1821378449732</v>
+        <v>464.1821378449733</v>
       </c>
       <c r="D34" t="n">
-        <v>396.0651732943452</v>
+        <v>396.0651732943454</v>
       </c>
       <c r="E34" t="n">
-        <v>328.022509700405</v>
+        <v>328.0225097004051</v>
       </c>
       <c r="F34" t="n">
-        <v>258.2127234602352</v>
+        <v>258.2127234602353</v>
       </c>
       <c r="G34" t="n">
         <v>177.6389690453861</v>
@@ -6855,16 +6855,16 @@
         <v>111.1360176282229</v>
       </c>
       <c r="I34" t="n">
-        <v>70.49420722769835</v>
+        <v>70.49420722769837</v>
       </c>
       <c r="J34" t="n">
         <v>137.8695643172011</v>
       </c>
       <c r="K34" t="n">
-        <v>324.1710171943603</v>
+        <v>324.1710171943604</v>
       </c>
       <c r="L34" t="n">
-        <v>597.9923471433747</v>
+        <v>597.9923471433749</v>
       </c>
       <c r="M34" t="n">
         <v>895.2778535019597</v>
@@ -6882,10 +6882,10 @@
         <v>1787.858984241131</v>
       </c>
       <c r="R34" t="n">
-        <v>1758.854966543679</v>
+        <v>1758.85496654368</v>
       </c>
       <c r="S34" t="n">
-        <v>1646.415734452829</v>
+        <v>1646.41573445283</v>
       </c>
       <c r="T34" t="n">
         <v>1498.914203361181</v>
@@ -6900,10 +6900,10 @@
         <v>926.7230636832298</v>
       </c>
       <c r="X34" t="n">
-        <v>780.1588900130702</v>
+        <v>780.1588900130703</v>
       </c>
       <c r="Y34" t="n">
-        <v>644.5629773765708</v>
+        <v>644.5629773765709</v>
       </c>
     </row>
     <row r="35">
@@ -6928,7 +6928,7 @@
         <v>441.4689676349152</v>
       </c>
       <c r="G35" t="n">
-        <v>340.026182282063</v>
+        <v>116.1883070295648</v>
       </c>
       <c r="H35" t="n">
         <v>107.2070285526023</v>
@@ -6937,7 +6937,7 @@
         <v>70.49420722769835</v>
       </c>
       <c r="J35" t="n">
-        <v>245.5851411175892</v>
+        <v>245.5851411175896</v>
       </c>
       <c r="K35" t="n">
         <v>650.190906398735</v>
@@ -6949,7 +6949,7 @@
         <v>1809.090236510098</v>
       </c>
       <c r="N35" t="n">
-        <v>2400.898839186174</v>
+        <v>2400.898839186173</v>
       </c>
       <c r="O35" t="n">
         <v>2901.369293696353</v>
@@ -7016,16 +7016,16 @@
         <v>70.49420722769835</v>
       </c>
       <c r="J36" t="n">
-        <v>201.7397363849166</v>
+        <v>70.49420722769835</v>
       </c>
       <c r="K36" t="n">
-        <v>201.7397363849166</v>
+        <v>421.2213457971251</v>
       </c>
       <c r="L36" t="n">
-        <v>423.7045085049775</v>
+        <v>946.4546117771655</v>
       </c>
       <c r="M36" t="n">
-        <v>1100.099791973117</v>
+        <v>946.4546117771655</v>
       </c>
       <c r="N36" t="n">
         <v>1100.099791973117</v>
@@ -7101,19 +7101,19 @@
         <v>324.1710171943603</v>
       </c>
       <c r="L37" t="n">
-        <v>597.9923471433755</v>
+        <v>597.9923471433748</v>
       </c>
       <c r="M37" t="n">
-        <v>895.2778535019604</v>
+        <v>895.2778535019597</v>
       </c>
       <c r="N37" t="n">
-        <v>1188.861755758785</v>
+        <v>1188.861755758784</v>
       </c>
       <c r="O37" t="n">
-        <v>1460.081369474408</v>
+        <v>1460.081369474407</v>
       </c>
       <c r="P37" t="n">
-        <v>1685.190341487535</v>
+        <v>1685.190341487534</v>
       </c>
       <c r="Q37" t="n">
         <v>1787.858984241132</v>
@@ -7159,16 +7159,16 @@
         <v>1085.914633894678</v>
       </c>
       <c r="E38" t="n">
-        <v>770.8472575580802</v>
+        <v>957.9723114856744</v>
       </c>
       <c r="F38" t="n">
-        <v>441.4689676349152</v>
+        <v>628.5940215625094</v>
       </c>
       <c r="G38" t="n">
-        <v>116.1883070295648</v>
+        <v>303.3133609571591</v>
       </c>
       <c r="H38" t="n">
-        <v>107.2070285526023</v>
+        <v>70.49420722769835</v>
       </c>
       <c r="I38" t="n">
         <v>70.49420722769835</v>
@@ -7271,7 +7271,7 @@
         <v>1863.594692357422</v>
       </c>
       <c r="P39" t="n">
-        <v>2104.544750103881</v>
+        <v>2305.860959294165</v>
       </c>
       <c r="Q39" t="n">
         <v>2363.405985666418</v>
@@ -7332,13 +7332,13 @@
         <v>70.49420722769835</v>
       </c>
       <c r="J40" t="n">
-        <v>137.8695643172018</v>
+        <v>137.8695643172011</v>
       </c>
       <c r="K40" t="n">
-        <v>324.171017194361</v>
+        <v>324.1710171943603</v>
       </c>
       <c r="L40" t="n">
-        <v>597.9923471433755</v>
+        <v>597.9923471433748</v>
       </c>
       <c r="M40" t="n">
         <v>895.2778535019604</v>
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1529.029504479791</v>
+        <v>1702.475623034702</v>
       </c>
       <c r="C41" t="n">
-        <v>1529.029504479791</v>
+        <v>1702.475623034702</v>
       </c>
       <c r="D41" t="n">
-        <v>1529.029504479791</v>
+        <v>1317.03449425137</v>
       </c>
       <c r="E41" t="n">
-        <v>1344.749726998007</v>
+        <v>914.450969367914</v>
       </c>
       <c r="F41" t="n">
-        <v>927.8552885279852</v>
+        <v>497.5565308978918</v>
       </c>
       <c r="G41" t="n">
-        <v>515.0584793757776</v>
+        <v>84.75972174568415</v>
       </c>
       <c r="H41" t="n">
-        <v>194.7231770994595</v>
+        <v>70.49420722769835</v>
       </c>
       <c r="I41" t="n">
         <v>70.49420722769835</v>
@@ -7435,28 +7435,28 @@
         <v>3524.710361384918</v>
       </c>
       <c r="R41" t="n">
-        <v>3509.70482569355</v>
+        <v>3524.710361384918</v>
       </c>
       <c r="S41" t="n">
-        <v>3509.70482569355</v>
+        <v>3366.535808999665</v>
       </c>
       <c r="T41" t="n">
-        <v>3287.806153442943</v>
+        <v>3144.637136749059</v>
       </c>
       <c r="U41" t="n">
-        <v>3032.082699586325</v>
+        <v>2888.913682892441</v>
       </c>
       <c r="V41" t="n">
-        <v>2689.975890289844</v>
+        <v>2888.913682892441</v>
       </c>
       <c r="W41" t="n">
-        <v>2318.976855258131</v>
+        <v>2888.913682892441</v>
       </c>
       <c r="X41" t="n">
-        <v>1929.524250191188</v>
+        <v>2499.461077825498</v>
       </c>
       <c r="Y41" t="n">
-        <v>1929.524250191188</v>
+        <v>2102.970368746099</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2022.336455388727</v>
+        <v>861.0320796702292</v>
       </c>
       <c r="C42" t="n">
-        <v>1871.68222494882</v>
+        <v>710.3778492303214</v>
       </c>
       <c r="D42" t="n">
-        <v>1741.5932575703</v>
+        <v>580.2888818518018</v>
       </c>
       <c r="E42" t="n">
-        <v>1605.146766681188</v>
+        <v>443.8423909626895</v>
       </c>
       <c r="F42" t="n">
-        <v>1480.714960564319</v>
+        <v>319.4105848458213</v>
       </c>
       <c r="G42" t="n">
-        <v>1360.850941200292</v>
+        <v>199.5465654817937</v>
       </c>
       <c r="H42" t="n">
-        <v>1274.444526722672</v>
+        <v>113.1401510041743</v>
       </c>
       <c r="I42" t="n">
-        <v>1231.798582946196</v>
+        <v>70.49420722769835</v>
       </c>
       <c r="J42" t="n">
-        <v>1363.044112103415</v>
+        <v>70.49420722769835</v>
       </c>
       <c r="K42" t="n">
-        <v>1713.771250672841</v>
+        <v>421.2213457971251</v>
       </c>
       <c r="L42" t="n">
-        <v>2239.004516652882</v>
+        <v>946.4546117771655</v>
       </c>
       <c r="M42" t="n">
-        <v>2239.004516652882</v>
+        <v>946.4546117771655</v>
       </c>
       <c r="N42" t="n">
-        <v>2261.404167691615</v>
+        <v>1100.099791973117</v>
       </c>
       <c r="O42" t="n">
-        <v>2823.582858885636</v>
+        <v>1662.278483167137</v>
       </c>
       <c r="P42" t="n">
-        <v>3265.849125822379</v>
+        <v>2104.544750103881</v>
       </c>
       <c r="Q42" t="n">
-        <v>3524.710361384918</v>
+        <v>2363.405985666418</v>
       </c>
       <c r="R42" t="n">
-        <v>3512.950004570318</v>
+        <v>2351.645628851819</v>
       </c>
       <c r="S42" t="n">
-        <v>3381.656199921929</v>
+        <v>2220.35182420343</v>
       </c>
       <c r="T42" t="n">
-        <v>3205.461593736694</v>
+        <v>2044.157218018195</v>
       </c>
       <c r="U42" t="n">
-        <v>2995.411331899817</v>
+        <v>1834.106956181318</v>
       </c>
       <c r="V42" t="n">
-        <v>2772.871330270883</v>
+        <v>1611.566954552385</v>
       </c>
       <c r="W42" t="n">
-        <v>2542.75408440417</v>
+        <v>1381.449708685672</v>
       </c>
       <c r="X42" t="n">
-        <v>2353.447006754182</v>
+        <v>1192.142631035683</v>
       </c>
       <c r="Y42" t="n">
-        <v>2174.132789829689</v>
+        <v>1012.828414111191</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2912.878852848611</v>
+        <v>381.8392419787458</v>
       </c>
       <c r="C43" t="n">
-        <v>2912.878852848611</v>
+        <v>381.8392419787458</v>
       </c>
       <c r="D43" t="n">
-        <v>2912.878852848611</v>
+        <v>381.8392419787458</v>
       </c>
       <c r="E43" t="n">
-        <v>2757.320040707813</v>
+        <v>381.8392419787458</v>
       </c>
       <c r="F43" t="n">
-        <v>2757.320040707813</v>
+        <v>224.5133071917188</v>
       </c>
       <c r="G43" t="n">
-        <v>2757.320040707813</v>
+        <v>224.5133071917188</v>
       </c>
       <c r="H43" t="n">
-        <v>2603.300940743793</v>
+        <v>70.49420722769835</v>
       </c>
       <c r="I43" t="n">
-        <v>2475.142981796411</v>
+        <v>70.49420722769835</v>
       </c>
       <c r="J43" t="n">
-        <v>2475.142981796411</v>
+        <v>70.49420722769835</v>
       </c>
       <c r="K43" t="n">
-        <v>2575.669857482796</v>
+        <v>171.0210829140828</v>
       </c>
       <c r="L43" t="n">
-        <v>2763.716610241035</v>
+        <v>359.0678356723225</v>
       </c>
       <c r="M43" t="n">
-        <v>2975.227539408845</v>
+        <v>570.5787648401326</v>
       </c>
       <c r="N43" t="n">
-        <v>3183.036864474895</v>
+        <v>778.3880899061821</v>
       </c>
       <c r="O43" t="n">
-        <v>3368.481900999743</v>
+        <v>963.8331264310302</v>
       </c>
       <c r="P43" t="n">
-        <v>3507.816295822096</v>
+        <v>1103.167521253383</v>
       </c>
       <c r="Q43" t="n">
-        <v>3524.710361384918</v>
+        <v>1120.061586816205</v>
       </c>
       <c r="R43" t="n">
-        <v>3524.710361384918</v>
+        <v>1120.061586816205</v>
       </c>
       <c r="S43" t="n">
-        <v>3524.710361384918</v>
+        <v>1120.061586816205</v>
       </c>
       <c r="T43" t="n">
-        <v>3289.692681746412</v>
+        <v>885.0439071776988</v>
       </c>
       <c r="U43" t="n">
-        <v>3289.692681746412</v>
+        <v>885.0439071776988</v>
       </c>
       <c r="V43" t="n">
-        <v>3289.692681746412</v>
+        <v>885.0439071776988</v>
       </c>
       <c r="W43" t="n">
-        <v>3289.692681746412</v>
+        <v>601.7135051088765</v>
       </c>
       <c r="X43" t="n">
-        <v>3135.990914031968</v>
+        <v>601.7135051088765</v>
       </c>
       <c r="Y43" t="n">
-        <v>2912.878852848611</v>
+        <v>381.8392419787458</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2353.205264443801</v>
+        <v>2008.545410793034</v>
       </c>
       <c r="C44" t="n">
-        <v>1960.029762946731</v>
+        <v>2008.545410793034</v>
       </c>
       <c r="D44" t="n">
-        <v>1747.333251881463</v>
+        <v>1623.104282009702</v>
       </c>
       <c r="E44" t="n">
-        <v>1344.749726998007</v>
+        <v>1220.520757126246</v>
       </c>
       <c r="F44" t="n">
-        <v>927.8552885279852</v>
+        <v>803.6263186562239</v>
       </c>
       <c r="G44" t="n">
-        <v>515.0584793757776</v>
+        <v>390.8295095040163</v>
       </c>
       <c r="H44" t="n">
-        <v>194.7231770994595</v>
+        <v>70.49420722769835</v>
       </c>
       <c r="I44" t="n">
         <v>70.49420722769835</v>
       </c>
       <c r="J44" t="n">
-        <v>245.5851411175896</v>
+        <v>245.5851411175892</v>
       </c>
       <c r="K44" t="n">
         <v>650.190906398735</v>
@@ -7663,10 +7663,10 @@
         <v>2400.898839186173</v>
       </c>
       <c r="O44" t="n">
-        <v>2901.369293696353</v>
+        <v>2901.369293696352</v>
       </c>
       <c r="P44" t="n">
-        <v>3301.133121273499</v>
+        <v>3301.133121273498</v>
       </c>
       <c r="Q44" t="n">
         <v>3524.710361384918</v>
@@ -7675,25 +7675,25 @@
         <v>3509.70482569355</v>
       </c>
       <c r="S44" t="n">
-        <v>3351.530273308297</v>
+        <v>3509.70482569355</v>
       </c>
       <c r="T44" t="n">
-        <v>3351.530273308297</v>
+        <v>3509.70482569355</v>
       </c>
       <c r="U44" t="n">
-        <v>3095.806819451679</v>
+        <v>3509.70482569355</v>
       </c>
       <c r="V44" t="n">
-        <v>2753.700010155198</v>
+        <v>3194.983470650773</v>
       </c>
       <c r="W44" t="n">
-        <v>2753.700010155198</v>
+        <v>3194.983470650773</v>
       </c>
       <c r="X44" t="n">
-        <v>2753.700010155198</v>
+        <v>2805.53086558383</v>
       </c>
       <c r="Y44" t="n">
-        <v>2753.700010155198</v>
+        <v>2409.040156504431</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2022.336455388727</v>
+        <v>861.0320796702292</v>
       </c>
       <c r="C45" t="n">
-        <v>1871.68222494882</v>
+        <v>710.3778492303214</v>
       </c>
       <c r="D45" t="n">
-        <v>1741.5932575703</v>
+        <v>580.2888818518018</v>
       </c>
       <c r="E45" t="n">
-        <v>1605.146766681188</v>
+        <v>443.8423909626895</v>
       </c>
       <c r="F45" t="n">
-        <v>1480.714960564319</v>
+        <v>319.4105848458213</v>
       </c>
       <c r="G45" t="n">
-        <v>1360.850941200292</v>
+        <v>199.5465654817937</v>
       </c>
       <c r="H45" t="n">
-        <v>1274.444526722672</v>
+        <v>113.1401510041743</v>
       </c>
       <c r="I45" t="n">
-        <v>1231.798582946196</v>
+        <v>70.49420722769835</v>
       </c>
       <c r="J45" t="n">
-        <v>1271.22717086803</v>
+        <v>201.7397363849166</v>
       </c>
       <c r="K45" t="n">
-        <v>1621.954309437456</v>
+        <v>552.4668749543433</v>
       </c>
       <c r="L45" t="n">
-        <v>2147.187575417497</v>
+        <v>1077.700140934384</v>
       </c>
       <c r="M45" t="n">
-        <v>2823.582858885636</v>
+        <v>1077.700140934384</v>
       </c>
       <c r="N45" t="n">
-        <v>2823.582858885636</v>
+        <v>1100.099791973117</v>
       </c>
       <c r="O45" t="n">
-        <v>2823.582858885636</v>
+        <v>1662.278483167137</v>
       </c>
       <c r="P45" t="n">
-        <v>3265.849125822379</v>
+        <v>2104.544750103881</v>
       </c>
       <c r="Q45" t="n">
-        <v>3524.710361384918</v>
+        <v>2363.405985666418</v>
       </c>
       <c r="R45" t="n">
-        <v>3512.950004570318</v>
+        <v>2351.645628851819</v>
       </c>
       <c r="S45" t="n">
-        <v>3381.656199921929</v>
+        <v>2220.35182420343</v>
       </c>
       <c r="T45" t="n">
-        <v>3205.461593736694</v>
+        <v>2044.157218018195</v>
       </c>
       <c r="U45" t="n">
-        <v>2995.411331899817</v>
+        <v>1834.106956181318</v>
       </c>
       <c r="V45" t="n">
-        <v>2772.871330270883</v>
+        <v>1611.566954552385</v>
       </c>
       <c r="W45" t="n">
-        <v>2542.75408440417</v>
+        <v>1381.449708685672</v>
       </c>
       <c r="X45" t="n">
-        <v>2353.447006754182</v>
+        <v>1192.142631035683</v>
       </c>
       <c r="Y45" t="n">
-        <v>2174.132789829689</v>
+        <v>1012.828414111191</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>371.4440649364396</v>
+        <v>564.4223412209008</v>
       </c>
       <c r="C46" t="n">
-        <v>371.4440649364396</v>
+        <v>394.21722328689</v>
       </c>
       <c r="D46" t="n">
-        <v>371.4440649364396</v>
+        <v>238.5841101894048</v>
       </c>
       <c r="E46" t="n">
-        <v>371.4440649364396</v>
+        <v>238.5841101894048</v>
       </c>
       <c r="F46" t="n">
-        <v>371.4440649364396</v>
+        <v>238.5841101894048</v>
       </c>
       <c r="G46" t="n">
-        <v>371.4440649364396</v>
+        <v>70.49420722769835</v>
       </c>
       <c r="H46" t="n">
-        <v>217.4249649724193</v>
+        <v>70.49420722769835</v>
       </c>
       <c r="I46" t="n">
-        <v>89.26700602503746</v>
+        <v>70.49420722769835</v>
       </c>
       <c r="J46" t="n">
         <v>70.49420722769835</v>
@@ -7830,28 +7830,28 @@
         <v>1120.061586816205</v>
       </c>
       <c r="R46" t="n">
-        <v>1003.541420571896</v>
+        <v>1120.061586816205</v>
       </c>
       <c r="S46" t="n">
-        <v>803.5860399341886</v>
+        <v>920.1062061784974</v>
       </c>
       <c r="T46" t="n">
-        <v>605.5243871534566</v>
+        <v>920.1062061784974</v>
       </c>
       <c r="U46" t="n">
-        <v>605.5243871534566</v>
+        <v>634.6763681079717</v>
       </c>
       <c r="V46" t="n">
-        <v>605.5243871534566</v>
+        <v>634.6763681079717</v>
       </c>
       <c r="W46" t="n">
-        <v>605.5243871534566</v>
+        <v>564.4223412209008</v>
       </c>
       <c r="X46" t="n">
-        <v>371.4440649364396</v>
+        <v>564.4223412209008</v>
       </c>
       <c r="Y46" t="n">
-        <v>371.4440649364396</v>
+        <v>564.4223412209008</v>
       </c>
     </row>
   </sheetData>
@@ -7978,19 +7978,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
         <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
-        <v>153.2481697304917</v>
+        <v>373.9177923378086</v>
       </c>
       <c r="M2" t="n">
-        <v>149.7250515977273</v>
+        <v>379.6860267358784</v>
       </c>
       <c r="N2" t="n">
-        <v>379.0794664759352</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O2" t="n">
         <v>379.5248125622476</v>
@@ -7999,7 +7999,7 @@
         <v>380.2624223790764</v>
       </c>
       <c r="Q2" t="n">
-        <v>219.0574392996201</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8057,7 +8057,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
         <v>319.5579104714845</v>
@@ -8069,16 +8069,16 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>306.0417354614835</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
         <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
-        <v>87.08336481931465</v>
+        <v>317.0443399574658</v>
       </c>
       <c r="Q3" t="n">
-        <v>320.9491282940651</v>
+        <v>197.4002179655265</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8224,16 +8224,16 @@
         <v>383.2091448686429</v>
       </c>
       <c r="M5" t="n">
-        <v>149.7250515977273</v>
+        <v>379.6860267358784</v>
       </c>
       <c r="N5" t="n">
-        <v>379.0794664759352</v>
+        <v>223.677232219012</v>
       </c>
       <c r="O5" t="n">
         <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
-        <v>224.8601881221531</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
         <v>144.4986984183922</v>
@@ -8297,25 +8297,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>319.5579104714845</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>320.0213219950694</v>
       </c>
       <c r="M6" t="n">
         <v>322.3480971874631</v>
       </c>
       <c r="N6" t="n">
-        <v>315.3330879923178</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>322.6485340270401</v>
+        <v>199.0996236985014</v>
       </c>
       <c r="P6" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
-        <v>197.4002179655265</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8455,25 +8455,25 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>373.0193783173885</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
-        <v>383.2091448686429</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M8" t="n">
-        <v>149.7250515977273</v>
+        <v>379.6860267358784</v>
       </c>
       <c r="N8" t="n">
-        <v>379.0794664759352</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O8" t="n">
-        <v>149.5638374240964</v>
+        <v>267.3708664324162</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>380.2624223790764</v>
       </c>
       <c r="Q8" t="n">
-        <v>219.0574392996201</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8537,22 +8537,22 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>320.0213219950694</v>
       </c>
       <c r="M9" t="n">
         <v>322.3480971874631</v>
       </c>
       <c r="N9" t="n">
-        <v>306.0417354614835</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
-        <v>322.6485340270401</v>
+        <v>313.3571814962057</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>317.0443399574658</v>
       </c>
       <c r="Q9" t="n">
-        <v>320.9491282940651</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8768,7 +8768,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>99.35053362420284</v>
+        <v>103.9576300447894</v>
       </c>
       <c r="K12" t="n">
         <v>412.5657697396227</v>
@@ -8780,16 +8780,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>34.95740907123395</v>
       </c>
       <c r="O12" t="n">
-        <v>46.56795423935438</v>
+        <v>46.56795423935431</v>
       </c>
       <c r="P12" t="n">
-        <v>50.06831611189427</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>66.24457335020948</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8944,7 +8944,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P14" t="n">
-        <v>502.0059847475134</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
         <v>331.2113854294513</v>
@@ -9005,25 +9005,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>64.13077355809006</v>
+        <v>64.13077355809003</v>
       </c>
       <c r="K15" t="n">
-        <v>58.29593280080783</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>578.5109386733963</v>
+        <v>50.48053132775178</v>
       </c>
       <c r="M15" t="n">
-        <v>43.27234039127354</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>34.95740907123395</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>293.4522128254894</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
         <v>327.7205688679246</v>
@@ -9242,22 +9242,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>196.7020151310378</v>
+        <v>64.13077355809003</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>47.97228616830488</v>
+        <v>50.48053132775165</v>
       </c>
       <c r="M18" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>472.7516764900769</v>
+        <v>34.95740907123393</v>
       </c>
       <c r="O18" t="n">
-        <v>46.56795423935433</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
@@ -9479,19 +9479,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>64.13077355809003</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>58.29593280080779</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>552.7393290431704</v>
+        <v>43.27234039127345</v>
       </c>
       <c r="N21" t="n">
-        <v>34.95740907123396</v>
+        <v>57.58331921136811</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9719,16 +9719,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>58.29593280080779</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>47.97228616830488</v>
+        <v>47.97228616830485</v>
       </c>
       <c r="M24" t="n">
-        <v>237.8900450706045</v>
+        <v>43.27234039127345</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>588.1219717164595</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9959,19 +9959,19 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>219.6834616488462</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>65.89825053140761</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>34.95740907123393</v>
       </c>
       <c r="O27" t="n">
-        <v>46.56795423935434</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>50.06831611189423</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
         <v>327.7205688679246</v>
@@ -10190,28 +10190,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>64.13077355809003</v>
       </c>
       <c r="K30" t="n">
-        <v>412.5657697396227</v>
+        <v>58.29593280080777</v>
       </c>
       <c r="L30" t="n">
-        <v>578.5109386733963</v>
+        <v>400.1432718459796</v>
       </c>
       <c r="M30" t="n">
-        <v>65.89825053140765</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>34.95740907123397</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>496.801919078302</v>
+        <v>50.06831611189421</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>66.24457335020944</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10427,19 +10427,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>64.13077355809003</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>385.4848790530866</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>47.97228616830488</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>43.27234039127348</v>
+        <v>43.27234039127345</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>57.58331921136811</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10664,19 +10664,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>196.7020151310378</v>
+        <v>64.13077355809003</v>
       </c>
       <c r="K36" t="n">
-        <v>58.29593280080779</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>272.1791266936189</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>43.27234039127347</v>
       </c>
       <c r="N36" t="n">
-        <v>34.95740907123397</v>
+        <v>190.154560784316</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10919,10 +10919,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>293.4522128254893</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>124.3708626151117</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11138,7 +11138,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>64.13077355809003</v>
       </c>
       <c r="K42" t="n">
         <v>412.5657697396227</v>
@@ -11150,7 +11150,7 @@
         <v>43.27234039127347</v>
       </c>
       <c r="N42" t="n">
-        <v>57.58331921136904</v>
+        <v>190.154560784316</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11317,7 +11317,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q44" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294516</v>
       </c>
       <c r="R44" t="n">
         <v>102.5176150018526</v>
@@ -11375,7 +11375,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>103.9576300447903</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
         <v>412.5657697396227</v>
@@ -11384,13 +11384,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>726.4998994499999</v>
+        <v>43.27234039127347</v>
       </c>
       <c r="N45" t="n">
-        <v>34.95740907123396</v>
+        <v>57.58331921136813</v>
       </c>
       <c r="O45" t="n">
-        <v>46.56795423935433</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>221.5994964999725</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23314,10 +23314,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>166.5252322566634</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>55.07426424330964</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23500,13 +23500,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>221.5994964999725</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>221.5994964999732</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23743,7 +23743,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>185.2538033883183</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>36.34569311165485</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>69.95181980001131</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23791,7 +23791,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>151.6476766999617</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>221.5994964999732</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>36.34569311165485</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>69.95181980001131</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>115.3019835883065</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24223,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>221.5994964999732</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>36.34569311165485</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>69.95181980001131</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>115.3019835883067</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24454,7 +24454,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>221.5994964999738</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24502,7 +24502,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>221.5994964999726</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24694,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>221.5994964999727</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24733,10 +24733,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>133.0386984667112</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>88.56079803326161</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24849,7 +24849,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24934,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>185.2538033883183</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>36.34569311165486</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24973,10 +24973,10 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>166.5252322566634</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>55.07426424330919</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25168,10 +25168,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
         <v>221.5994964999732</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25399,7 +25399,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>185.2538033883182</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>221.5994964999732</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>36.34569311165485</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25633,10 +25633,10 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>216.1207099276551</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>303.0090898807488</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>122.9866801730435</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,10 +25675,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>14.85548033445461</v>
       </c>
       <c r="S41" t="n">
-        <v>156.5928068614</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25687,16 +25687,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25794,10 +25794,10 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.4090039320893</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>126.876379357908</v>
       </c>
       <c r="J43" t="n">
         <v>18.58507080936572</v>
@@ -25848,13 +25848,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>79.57476895754715</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>3.205420072693727</v>
       </c>
     </row>
     <row r="44">
@@ -25867,10 +25867,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>171.0171715408832</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>122.9866801730435</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>156.5928068614</v>
       </c>
       <c r="T44" t="n">
         <v>219.6796855281</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>253.1662193180521</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>27.1115997111682</v>
       </c>
       <c r="W44" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26025,10 +26025,10 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>154.0032240193895</v>
@@ -26037,16 +26037,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4090039320893</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>152.4789089643802</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>126.876379357908</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>18.58507080936572</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>115.3549645818656</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>36.58646658919614</v>
+        <v>232.6675028421209</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5755396898203</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>210.9456114299339</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
         <v>220.8809405715231</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>728768.3489201203</v>
+        <v>728768.3489201202</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>728768.3489201202</v>
+        <v>728768.3489201203</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>728768.3489201202</v>
+        <v>728768.3489201203</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>728768.34892012</v>
+        <v>728768.3489201202</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>728768.3489201202</v>
+        <v>728768.3489201203</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>728768.3489201202</v>
+        <v>728768.3489201203</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>593830.327450352</v>
+        <v>593830.3274503521</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>631162.6233267486</v>
       </c>
       <c r="C2" t="n">
-        <v>631162.6233267484</v>
+        <v>631162.6233267488</v>
       </c>
       <c r="D2" t="n">
-        <v>631162.6233267487</v>
+        <v>631162.623326749</v>
       </c>
       <c r="E2" t="n">
+        <v>615728.2183955255</v>
+      </c>
+      <c r="F2" t="n">
+        <v>615728.2183955264</v>
+      </c>
+      <c r="G2" t="n">
         <v>615728.2183955254</v>
       </c>
-      <c r="F2" t="n">
-        <v>615728.2183955255</v>
-      </c>
-      <c r="G2" t="n">
-        <v>615728.2183955256</v>
-      </c>
       <c r="H2" t="n">
-        <v>615728.2183955254</v>
+        <v>615728.2183955261</v>
       </c>
       <c r="I2" t="n">
-        <v>615728.2183955254</v>
+        <v>615728.2183955257</v>
       </c>
       <c r="J2" t="n">
-        <v>615728.2183955262</v>
+        <v>615728.2183955264</v>
       </c>
       <c r="K2" t="n">
         <v>615728.2183955264</v>
       </c>
       <c r="L2" t="n">
+        <v>615728.2183955255</v>
+      </c>
+      <c r="M2" t="n">
         <v>615728.2183955254</v>
       </c>
-      <c r="M2" t="n">
-        <v>615728.2183955251</v>
-      </c>
       <c r="N2" t="n">
-        <v>615728.2183955252</v>
+        <v>615728.2183955254</v>
       </c>
       <c r="O2" t="n">
         <v>480790.1969257577</v>
       </c>
       <c r="P2" t="n">
-        <v>480790.1969257579</v>
+        <v>480790.1969257577</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>336153.5110258333</v>
+        <v>336153.5110258334</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>315487.7702908209</v>
+        <v>315487.7702908208</v>
       </c>
       <c r="C4" t="n">
         <v>315487.7702908208</v>
       </c>
       <c r="D4" t="n">
-        <v>315487.7702908209</v>
+        <v>315487.7702908208</v>
       </c>
       <c r="E4" t="n">
-        <v>201871.1380571955</v>
+        <v>201871.1380571954</v>
       </c>
       <c r="F4" t="n">
-        <v>201871.1380571955</v>
+        <v>201871.1380571954</v>
       </c>
       <c r="G4" t="n">
         <v>201871.1380571954</v>
@@ -26441,13 +26441,13 @@
         <v>201871.1380571954</v>
       </c>
       <c r="J4" t="n">
-        <v>201871.1380571953</v>
+        <v>201871.1380571954</v>
       </c>
       <c r="K4" t="n">
         <v>201871.1380571954</v>
       </c>
       <c r="L4" t="n">
-        <v>201871.1380571953</v>
+        <v>201871.1380571954</v>
       </c>
       <c r="M4" t="n">
         <v>201871.1380571954</v>
@@ -26478,34 +26478,34 @@
         <v>47609.22728839959</v>
       </c>
       <c r="E5" t="n">
-        <v>62824.00990063616</v>
+        <v>62824.00990063617</v>
       </c>
       <c r="F5" t="n">
-        <v>62824.00990063616</v>
+        <v>62824.00990063617</v>
       </c>
       <c r="G5" t="n">
-        <v>62824.00990063616</v>
+        <v>62824.00990063617</v>
       </c>
       <c r="H5" t="n">
-        <v>62824.00990063616</v>
+        <v>62824.00990063617</v>
       </c>
       <c r="I5" t="n">
-        <v>62824.00990063616</v>
+        <v>62824.00990063617</v>
       </c>
       <c r="J5" t="n">
-        <v>62824.00990063616</v>
+        <v>62824.00990063617</v>
       </c>
       <c r="K5" t="n">
+        <v>62824.00990063618</v>
+      </c>
+      <c r="L5" t="n">
+        <v>62824.00990063618</v>
+      </c>
+      <c r="M5" t="n">
         <v>62824.00990063617</v>
       </c>
-      <c r="L5" t="n">
-        <v>62824.00990063616</v>
-      </c>
-      <c r="M5" t="n">
-        <v>62824.00990063616</v>
-      </c>
       <c r="N5" t="n">
-        <v>62824.00990063616</v>
+        <v>62824.00990063617</v>
       </c>
       <c r="O5" t="n">
         <v>55540.18875937228</v>
@@ -26524,46 +26524,46 @@
         <v>191000.4138763056</v>
       </c>
       <c r="C6" t="n">
-        <v>268065.625747528</v>
+        <v>268065.6257475285</v>
       </c>
       <c r="D6" t="n">
-        <v>268065.6257475283</v>
+        <v>268065.6257475286</v>
       </c>
       <c r="E6" t="n">
-        <v>14879.55941186042</v>
+        <v>14835.461112057</v>
       </c>
       <c r="F6" t="n">
-        <v>351033.0704376939</v>
+        <v>350988.9721378914</v>
       </c>
       <c r="G6" t="n">
-        <v>351033.070437694</v>
+        <v>350988.9721378903</v>
       </c>
       <c r="H6" t="n">
-        <v>351033.0704376939</v>
+        <v>350988.972137891</v>
       </c>
       <c r="I6" t="n">
-        <v>351033.0704376939</v>
+        <v>350988.9721378906</v>
       </c>
       <c r="J6" t="n">
-        <v>221552.3714095373</v>
+        <v>221508.2731097339</v>
       </c>
       <c r="K6" t="n">
-        <v>351033.0704376949</v>
+        <v>350988.9721378914</v>
       </c>
       <c r="L6" t="n">
-        <v>351033.0704376939</v>
+        <v>350988.9721378904</v>
       </c>
       <c r="M6" t="n">
-        <v>188747.2850613797</v>
+        <v>188703.1867615763</v>
       </c>
       <c r="N6" t="n">
-        <v>351033.0704376937</v>
+        <v>350988.9721378903</v>
       </c>
       <c r="O6" t="n">
-        <v>311607.8099412046</v>
+        <v>311178.1744372016</v>
       </c>
       <c r="P6" t="n">
-        <v>311607.8099412047</v>
+        <v>311178.1744372016</v>
       </c>
     </row>
   </sheetData>
@@ -26694,10 +26694,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>86.64098706138873</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="F2" t="n">
-        <v>86.64098706138871</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="G2" t="n">
         <v>86.64098706138869</v>
@@ -26709,10 +26709,10 @@
         <v>86.64098706138869</v>
       </c>
       <c r="J2" t="n">
-        <v>86.64098706138864</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="K2" t="n">
-        <v>86.64098706138866</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="L2" t="n">
         <v>86.64098706138869</v>
@@ -26746,31 +26746,31 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>90.11886542759338</v>
+        <v>90.11886542759351</v>
       </c>
       <c r="F3" t="n">
-        <v>90.11886542759336</v>
+        <v>90.11886542759351</v>
       </c>
       <c r="G3" t="n">
+        <v>90.11886542759353</v>
+      </c>
+      <c r="H3" t="n">
+        <v>90.11886542759353</v>
+      </c>
+      <c r="I3" t="n">
+        <v>90.11886542759353</v>
+      </c>
+      <c r="J3" t="n">
+        <v>90.11886542759353</v>
+      </c>
+      <c r="K3" t="n">
+        <v>90.11886542759353</v>
+      </c>
+      <c r="L3" t="n">
+        <v>90.11886542759353</v>
+      </c>
+      <c r="M3" t="n">
         <v>90.11886542759348</v>
-      </c>
-      <c r="H3" t="n">
-        <v>90.11886542759348</v>
-      </c>
-      <c r="I3" t="n">
-        <v>90.11886542759346</v>
-      </c>
-      <c r="J3" t="n">
-        <v>90.11886542759346</v>
-      </c>
-      <c r="K3" t="n">
-        <v>90.11886542759346</v>
-      </c>
-      <c r="L3" t="n">
-        <v>90.11886542759346</v>
-      </c>
-      <c r="M3" t="n">
-        <v>90.11886542759346</v>
       </c>
       <c r="N3" t="n">
         <v>90.11886542759348</v>
@@ -26798,10 +26798,10 @@
         <v>229.9609751381512</v>
       </c>
       <c r="E4" t="n">
-        <v>881.1775903462293</v>
+        <v>881.1775903462294</v>
       </c>
       <c r="F4" t="n">
-        <v>881.1775903462293</v>
+        <v>881.1775903462294</v>
       </c>
       <c r="G4" t="n">
         <v>881.1775903462294</v>
@@ -26819,7 +26819,7 @@
         <v>881.1775903462295</v>
       </c>
       <c r="L4" t="n">
-        <v>881.1775903462294</v>
+        <v>881.1775903462295</v>
       </c>
       <c r="M4" t="n">
         <v>881.1775903462294</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>86.64098706138873</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>90.11886542759338</v>
+        <v>90.11886542759351</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>651.2166152080781</v>
+        <v>651.2166152080782</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>651.2166152080781</v>
+        <v>651.2166152080782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>86.64098706138873</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>651.2166152080781</v>
+        <v>651.2166152080782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,16 +27381,16 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>159.2827713439475</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>151.6257423573478</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>168.5967144964697</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>219.2069951405155</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27432,22 +27432,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>149.1973576220585</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>137.3280695432443</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>162.5648268504537</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
         <v>166.5715133615489</v>
@@ -27557,7 +27557,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
         <v>30.07448747215907</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
@@ -27593,19 +27593,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>52.62342870236691</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>135.5026525567492</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>1.778543856695563</v>
+        <v>188.785673949551</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27624,16 +27624,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>332.9618084713973</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>182.7645189471708</v>
       </c>
       <c r="G5" t="n">
         <v>179.0701528187257</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>90.88124479102308</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27672,10 +27672,10 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>200.3248151918458</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>108.7247660653656</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
@@ -27684,7 +27684,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>162.5648268504537</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27697,25 +27697,25 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
-        <v>149.1476881355087</v>
+        <v>32.52114132162353</v>
       </c>
       <c r="D6" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27751,19 +27751,19 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
         <v>187.4140068734885</v>
       </c>
       <c r="Y6" t="n">
-        <v>98.44095234799106</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="7">
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>64.34515061910666</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>153.923765528121</v>
@@ -27824,7 +27824,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
@@ -27833,16 +27833,16 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>46.32644173797206</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>1.778543856695563</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -27858,19 +27858,19 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>151.6257423573478</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>168.5967144964697</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>182.7645189471708</v>
       </c>
       <c r="G8" t="n">
         <v>179.0701528187257</v>
       </c>
       <c r="H8" t="n">
-        <v>131.0180871128129</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>244.4116007317834</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
@@ -27931,19 +27931,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>150.2783710965517</v>
+        <v>49.21814208904536</v>
       </c>
       <c r="C9" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -27979,28 +27979,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S9" t="n">
-        <v>133.2933941678142</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T9" t="n">
         <v>175.2139736830806</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V9" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X9" t="n">
         <v>187.4140068734885</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="10">
@@ -28010,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>107.2573873682586</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>131.7634811092929</v>
@@ -28076,10 +28076,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>1.778543856695563</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>92.48808469814398</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>86.64098706138873</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="C11" t="n">
-        <v>86.64098706138873</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="D11" t="n">
-        <v>86.64098706138873</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="E11" t="n">
-        <v>86.64098706138873</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="F11" t="n">
-        <v>86.64098706138873</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="G11" t="n">
-        <v>86.64098706138873</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="H11" t="n">
-        <v>86.64098706138873</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="I11" t="n">
-        <v>86.64098706138873</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28137,28 +28137,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>14.85548033445463</v>
+        <v>14.8554803344546</v>
       </c>
       <c r="S11" t="n">
-        <v>86.64098706138873</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="T11" t="n">
-        <v>86.64098706138873</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="U11" t="n">
-        <v>86.64098706138873</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="V11" t="n">
-        <v>86.64098706138873</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="W11" t="n">
-        <v>86.64098706138873</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="X11" t="n">
-        <v>86.64098706138873</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="Y11" t="n">
-        <v>86.64098706138873</v>
+        <v>86.64098706138869</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>86.64098706138873</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="C13" t="n">
-        <v>86.64098706138873</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="D13" t="n">
-        <v>86.64098706138873</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="E13" t="n">
-        <v>86.64098706138873</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="F13" t="n">
-        <v>86.64098706138873</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="G13" t="n">
-        <v>86.64098706138873</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="H13" t="n">
-        <v>86.64098706138873</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="I13" t="n">
-        <v>86.64098706138873</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="J13" t="n">
-        <v>86.64098706138873</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="K13" t="n">
-        <v>86.64098706138873</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="L13" t="n">
-        <v>86.64098706138873</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="M13" t="n">
-        <v>86.64098706138873</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="N13" t="n">
-        <v>86.64098706138873</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="O13" t="n">
-        <v>86.64098706138873</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="P13" t="n">
-        <v>86.64098706138873</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.64098706138873</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="R13" t="n">
-        <v>86.64098706138873</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="S13" t="n">
-        <v>86.64098706138873</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="T13" t="n">
-        <v>86.64098706138873</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="U13" t="n">
-        <v>86.64098706138873</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="V13" t="n">
-        <v>86.64098706138873</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="W13" t="n">
-        <v>86.64098706138873</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="X13" t="n">
-        <v>86.64098706138873</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="Y13" t="n">
-        <v>86.64098706138873</v>
+        <v>86.64098706138869</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>86.64098706138871</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="C14" t="n">
-        <v>86.64098706138871</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="D14" t="n">
-        <v>86.64098706138871</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="E14" t="n">
-        <v>86.64098706138871</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="F14" t="n">
-        <v>86.64098706138871</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="G14" t="n">
-        <v>86.64098706138871</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="H14" t="n">
-        <v>86.64098706138871</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="I14" t="n">
-        <v>86.64098706138871</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28374,28 +28374,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>14.85548033445464</v>
+        <v>14.8554803344546</v>
       </c>
       <c r="S14" t="n">
-        <v>86.64098706138871</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="T14" t="n">
-        <v>86.64098706138871</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="U14" t="n">
-        <v>86.64098706138871</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="V14" t="n">
-        <v>86.64098706138871</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="W14" t="n">
-        <v>86.64098706138871</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="X14" t="n">
-        <v>86.64098706138871</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="Y14" t="n">
-        <v>86.64098706138871</v>
+        <v>86.64098706138869</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>86.64098706138871</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="C16" t="n">
-        <v>86.64098706138871</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="D16" t="n">
-        <v>86.64098706138871</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="E16" t="n">
-        <v>86.64098706138871</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="F16" t="n">
-        <v>86.64098706138871</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="G16" t="n">
-        <v>86.64098706138871</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="H16" t="n">
-        <v>86.64098706138871</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="I16" t="n">
-        <v>86.64098706138871</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="J16" t="n">
-        <v>86.64098706138871</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="K16" t="n">
-        <v>86.64098706138871</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="L16" t="n">
-        <v>86.64098706138871</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="M16" t="n">
-        <v>86.64098706138871</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="N16" t="n">
-        <v>86.64098706138871</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="O16" t="n">
-        <v>86.64098706138871</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="P16" t="n">
-        <v>86.64098706138871</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.64098706138871</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="R16" t="n">
-        <v>86.64098706138871</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="S16" t="n">
-        <v>86.64098706138871</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="T16" t="n">
-        <v>86.64098706138871</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="U16" t="n">
-        <v>86.64098706138871</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="V16" t="n">
-        <v>86.64098706138871</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="W16" t="n">
-        <v>86.64098706138871</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="X16" t="n">
-        <v>86.64098706138871</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="Y16" t="n">
-        <v>86.64098706138871</v>
+        <v>86.64098706138869</v>
       </c>
     </row>
     <row r="17">
@@ -28611,7 +28611,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>14.85548033445461</v>
+        <v>14.85548033445459</v>
       </c>
       <c r="S17" t="n">
         <v>86.64098706138869</v>
@@ -28848,7 +28848,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>14.85548033445461</v>
+        <v>14.85548033445459</v>
       </c>
       <c r="S20" t="n">
         <v>86.64098706138869</v>
@@ -28994,7 +28994,7 @@
         <v>86.64098706138869</v>
       </c>
       <c r="N22" t="n">
-        <v>86.64098706138869</v>
+        <v>86.64098706138947</v>
       </c>
       <c r="O22" t="n">
         <v>86.64098706138869</v>
@@ -29085,7 +29085,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>14.85548033445461</v>
+        <v>14.85548033445459</v>
       </c>
       <c r="S23" t="n">
         <v>86.64098706138869</v>
@@ -29219,28 +29219,28 @@
         <v>86.64098706138869</v>
       </c>
       <c r="J25" t="n">
+        <v>86.64098706138869</v>
+      </c>
+      <c r="K25" t="n">
+        <v>86.64098706138869</v>
+      </c>
+      <c r="L25" t="n">
+        <v>86.64098706138869</v>
+      </c>
+      <c r="M25" t="n">
+        <v>86.64098706138869</v>
+      </c>
+      <c r="N25" t="n">
+        <v>86.64098706138869</v>
+      </c>
+      <c r="O25" t="n">
+        <v>86.64098706138869</v>
+      </c>
+      <c r="P25" t="n">
+        <v>86.64098706138869</v>
+      </c>
+      <c r="Q25" t="n">
         <v>86.64098706138938</v>
-      </c>
-      <c r="K25" t="n">
-        <v>86.64098706138869</v>
-      </c>
-      <c r="L25" t="n">
-        <v>86.64098706138869</v>
-      </c>
-      <c r="M25" t="n">
-        <v>86.64098706138869</v>
-      </c>
-      <c r="N25" t="n">
-        <v>86.64098706138869</v>
-      </c>
-      <c r="O25" t="n">
-        <v>86.64098706138869</v>
-      </c>
-      <c r="P25" t="n">
-        <v>86.64098706138869</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>86.64098706138869</v>
       </c>
       <c r="R25" t="n">
         <v>86.64098706138869</v>
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>86.64098706138864</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="C26" t="n">
-        <v>86.64098706138864</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="D26" t="n">
-        <v>86.64098706138864</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="E26" t="n">
-        <v>86.64098706138864</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="F26" t="n">
-        <v>86.64098706138864</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="G26" t="n">
-        <v>86.64098706138864</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="H26" t="n">
-        <v>86.64098706138864</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="I26" t="n">
-        <v>86.64098706138864</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29322,28 +29322,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>14.85548033445461</v>
+        <v>14.85548033445459</v>
       </c>
       <c r="S26" t="n">
-        <v>86.64098706138864</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="T26" t="n">
-        <v>86.64098706138864</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="U26" t="n">
-        <v>86.64098706138864</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="V26" t="n">
-        <v>86.64098706138864</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="W26" t="n">
-        <v>86.64098706138864</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="X26" t="n">
-        <v>86.64098706138864</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="Y26" t="n">
-        <v>86.64098706138864</v>
+        <v>86.64098706138869</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>86.64098706138864</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="C28" t="n">
-        <v>86.64098706138864</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="D28" t="n">
-        <v>86.64098706138864</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="E28" t="n">
-        <v>86.64098706138864</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="F28" t="n">
-        <v>86.64098706138864</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="G28" t="n">
-        <v>86.64098706138864</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="H28" t="n">
-        <v>86.64098706138864</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="I28" t="n">
-        <v>86.64098706138864</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="J28" t="n">
-        <v>86.64098706138864</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="K28" t="n">
-        <v>86.64098706138864</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="L28" t="n">
-        <v>86.64098706138864</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="M28" t="n">
-        <v>86.64098706138864</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="N28" t="n">
-        <v>86.64098706138864</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="O28" t="n">
-        <v>86.64098706138864</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="P28" t="n">
-        <v>86.64098706138864</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.64098706138864</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="R28" t="n">
-        <v>86.64098706138864</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="S28" t="n">
-        <v>86.64098706138864</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="T28" t="n">
-        <v>86.64098706138864</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="U28" t="n">
-        <v>86.64098706138864</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="V28" t="n">
-        <v>86.64098706138864</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="W28" t="n">
-        <v>86.64098706138864</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="X28" t="n">
-        <v>86.64098706138864</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="Y28" t="n">
-        <v>86.64098706138864</v>
+        <v>86.64098706138869</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>86.64098706138866</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="C29" t="n">
-        <v>86.64098706138866</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="D29" t="n">
-        <v>86.64098706138866</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="E29" t="n">
-        <v>86.64098706138866</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="F29" t="n">
-        <v>86.64098706138866</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="G29" t="n">
-        <v>86.64098706138866</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="H29" t="n">
-        <v>86.64098706138866</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="I29" t="n">
-        <v>86.64098706138866</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29559,28 +29559,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>14.85548033445461</v>
+        <v>14.85548033445459</v>
       </c>
       <c r="S29" t="n">
-        <v>86.64098706138866</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="T29" t="n">
-        <v>86.64098706138866</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="U29" t="n">
-        <v>86.64098706138866</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="V29" t="n">
-        <v>86.64098706138866</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="W29" t="n">
-        <v>86.64098706138866</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="X29" t="n">
-        <v>86.64098706138866</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="Y29" t="n">
-        <v>86.64098706138866</v>
+        <v>86.64098706138869</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>86.64098706138866</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="C31" t="n">
-        <v>86.64098706138866</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="D31" t="n">
-        <v>86.64098706138866</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="E31" t="n">
-        <v>86.64098706138866</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="F31" t="n">
-        <v>86.64098706138866</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="G31" t="n">
-        <v>86.64098706138866</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="H31" t="n">
-        <v>86.64098706138866</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="I31" t="n">
-        <v>86.64098706138866</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="J31" t="n">
-        <v>86.64098706138866</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="K31" t="n">
-        <v>86.64098706138866</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="L31" t="n">
-        <v>86.64098706138866</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="M31" t="n">
-        <v>86.64098706138866</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="N31" t="n">
-        <v>86.64098706138866</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="O31" t="n">
-        <v>86.64098706138866</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="P31" t="n">
-        <v>86.64098706138866</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.64098706138866</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="R31" t="n">
-        <v>86.64098706138866</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="S31" t="n">
-        <v>86.64098706138866</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="T31" t="n">
-        <v>86.64098706138866</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="U31" t="n">
-        <v>86.64098706138866</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="V31" t="n">
-        <v>86.64098706138866</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="W31" t="n">
-        <v>86.64098706138866</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="X31" t="n">
-        <v>86.64098706138866</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="Y31" t="n">
-        <v>86.64098706138866</v>
+        <v>86.64098706138869</v>
       </c>
     </row>
     <row r="32">
@@ -29796,7 +29796,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>14.85548033445461</v>
+        <v>14.85548033445459</v>
       </c>
       <c r="S32" t="n">
         <v>86.64098706138869</v>
@@ -30173,7 +30173,7 @@
         <v>86.64098706138869</v>
       </c>
       <c r="L37" t="n">
-        <v>86.64098706138935</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="M37" t="n">
         <v>86.64098706138869</v>
@@ -30188,7 +30188,7 @@
         <v>86.64098706138869</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.64098706138869</v>
+        <v>86.64098706138938</v>
       </c>
       <c r="R37" t="n">
         <v>86.64098706138869</v>
@@ -30404,7 +30404,7 @@
         <v>86.64098706138869</v>
       </c>
       <c r="J40" t="n">
-        <v>86.64098706138937</v>
+        <v>86.64098706138869</v>
       </c>
       <c r="K40" t="n">
         <v>86.64098706138869</v>
@@ -30413,7 +30413,7 @@
         <v>86.64098706138869</v>
       </c>
       <c r="M40" t="n">
-        <v>86.64098706138869</v>
+        <v>86.64098706138935</v>
       </c>
       <c r="N40" t="n">
         <v>86.64098706138869</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3622868961913299</v>
+        <v>0.3622868961913304</v>
       </c>
       <c r="H11" t="n">
-        <v>3.710270675619458</v>
+        <v>3.710270675619463</v>
       </c>
       <c r="I11" t="n">
-        <v>13.96706556541626</v>
+        <v>13.96706556541628</v>
       </c>
       <c r="J11" t="n">
-        <v>30.74864745561891</v>
+        <v>30.74864745561896</v>
       </c>
       <c r="K11" t="n">
-        <v>46.08425177139792</v>
+        <v>46.08425177139798</v>
       </c>
       <c r="L11" t="n">
-        <v>57.17158937071334</v>
+        <v>57.17158937071342</v>
       </c>
       <c r="M11" t="n">
-        <v>63.6144089608559</v>
+        <v>63.61440896085599</v>
       </c>
       <c r="N11" t="n">
-        <v>64.64375660465952</v>
+        <v>64.64375660465961</v>
       </c>
       <c r="O11" t="n">
-        <v>61.04126628065698</v>
+        <v>61.04126628065707</v>
       </c>
       <c r="P11" t="n">
-        <v>52.09730853093352</v>
+        <v>52.09730853093359</v>
       </c>
       <c r="Q11" t="n">
-        <v>39.1229090610815</v>
+        <v>39.12290906108156</v>
       </c>
       <c r="R11" t="n">
-        <v>22.75750424287865</v>
+        <v>22.75750424287868</v>
       </c>
       <c r="S11" t="n">
-        <v>8.255612646959937</v>
+        <v>8.25561264695995</v>
       </c>
       <c r="T11" t="n">
-        <v>1.585910888077547</v>
+        <v>1.58591088807755</v>
       </c>
       <c r="U11" t="n">
-        <v>0.02898295169530639</v>
+        <v>0.02898295169530643</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.193840578466899</v>
+        <v>0.1938405784668993</v>
       </c>
       <c r="H12" t="n">
-        <v>1.872091902561893</v>
+        <v>1.872091902561896</v>
       </c>
       <c r="I12" t="n">
-        <v>6.673897109496303</v>
+        <v>6.673897109496313</v>
       </c>
       <c r="J12" t="n">
-        <v>18.31368377524329</v>
+        <v>18.31368377524332</v>
       </c>
       <c r="K12" t="n">
-        <v>31.30100253252553</v>
+        <v>31.30100253252557</v>
       </c>
       <c r="L12" t="n">
-        <v>42.08806068861331</v>
+        <v>42.08806068861337</v>
       </c>
       <c r="M12" t="n">
-        <v>49.11478165803838</v>
+        <v>49.11478165803845</v>
       </c>
       <c r="N12" t="n">
-        <v>50.41470378293264</v>
+        <v>50.41470378293271</v>
       </c>
       <c r="O12" t="n">
-        <v>46.11960464953451</v>
+        <v>46.11960464953457</v>
       </c>
       <c r="P12" t="n">
-        <v>37.01504870742038</v>
+        <v>37.01504870742044</v>
       </c>
       <c r="Q12" t="n">
-        <v>24.74357980570451</v>
+        <v>24.74357980570455</v>
       </c>
       <c r="R12" t="n">
-        <v>12.03511942446238</v>
+        <v>12.0351194244624</v>
       </c>
       <c r="S12" t="n">
-        <v>3.600503727225073</v>
+        <v>3.600503727225078</v>
       </c>
       <c r="T12" t="n">
-        <v>0.7813135596977197</v>
+        <v>0.7813135596977208</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0127526696359802</v>
+        <v>0.01275266963598022</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1625094294595946</v>
+        <v>0.1625094294595948</v>
       </c>
       <c r="H13" t="n">
-        <v>1.44485656374076</v>
+        <v>1.444856563740762</v>
       </c>
       <c r="I13" t="n">
-        <v>4.8871017513849</v>
+        <v>4.887101751384908</v>
       </c>
       <c r="J13" t="n">
-        <v>11.48941666279334</v>
+        <v>11.48941666279335</v>
       </c>
       <c r="K13" t="n">
-        <v>18.88064098630562</v>
+        <v>18.88064098630565</v>
       </c>
       <c r="L13" t="n">
-        <v>24.16072008529282</v>
+        <v>24.16072008529286</v>
       </c>
       <c r="M13" t="n">
-        <v>25.47409174701627</v>
+        <v>25.4740917470163</v>
       </c>
       <c r="N13" t="n">
-        <v>24.86837478266689</v>
+        <v>24.86837478266692</v>
       </c>
       <c r="O13" t="n">
-        <v>22.96996917488889</v>
+        <v>22.96996917488892</v>
       </c>
       <c r="P13" t="n">
-        <v>19.65477681391314</v>
+        <v>19.65477681391317</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.6079486795666</v>
+        <v>13.60794867956662</v>
       </c>
       <c r="R13" t="n">
-        <v>7.307014891883225</v>
+        <v>7.307014891883234</v>
       </c>
       <c r="S13" t="n">
-        <v>2.832096147945843</v>
+        <v>2.832096147945847</v>
       </c>
       <c r="T13" t="n">
-        <v>0.6943584713273585</v>
+        <v>0.6943584713273595</v>
       </c>
       <c r="U13" t="n">
-        <v>0.008864150697796079</v>
+        <v>0.008864150697796091</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3622868961913298</v>
+        <v>0.3622868961913304</v>
       </c>
       <c r="H14" t="n">
-        <v>3.710270675619458</v>
+        <v>3.710270675619463</v>
       </c>
       <c r="I14" t="n">
-        <v>13.96706556541626</v>
+        <v>13.96706556541628</v>
       </c>
       <c r="J14" t="n">
-        <v>30.74864745561891</v>
+        <v>30.74864745561896</v>
       </c>
       <c r="K14" t="n">
-        <v>46.08425177139791</v>
+        <v>46.08425177139798</v>
       </c>
       <c r="L14" t="n">
-        <v>57.17158937071333</v>
+        <v>57.17158937071342</v>
       </c>
       <c r="M14" t="n">
-        <v>63.61440896085589</v>
+        <v>63.61440896085599</v>
       </c>
       <c r="N14" t="n">
-        <v>64.64375660465952</v>
+        <v>64.64375660465961</v>
       </c>
       <c r="O14" t="n">
-        <v>61.04126628065697</v>
+        <v>61.04126628065707</v>
       </c>
       <c r="P14" t="n">
-        <v>52.09730853093351</v>
+        <v>52.09730853093359</v>
       </c>
       <c r="Q14" t="n">
-        <v>39.12290906108149</v>
+        <v>39.12290906108156</v>
       </c>
       <c r="R14" t="n">
-        <v>22.75750424287864</v>
+        <v>22.75750424287868</v>
       </c>
       <c r="S14" t="n">
-        <v>8.255612646959937</v>
+        <v>8.25561264695995</v>
       </c>
       <c r="T14" t="n">
-        <v>1.585910888077547</v>
+        <v>1.58591088807755</v>
       </c>
       <c r="U14" t="n">
-        <v>0.02898295169530638</v>
+        <v>0.02898295169530643</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1938405784668989</v>
+        <v>0.1938405784668993</v>
       </c>
       <c r="H15" t="n">
-        <v>1.872091902561893</v>
+        <v>1.872091902561896</v>
       </c>
       <c r="I15" t="n">
-        <v>6.673897109496302</v>
+        <v>6.673897109496313</v>
       </c>
       <c r="J15" t="n">
-        <v>18.31368377524329</v>
+        <v>18.31368377524332</v>
       </c>
       <c r="K15" t="n">
-        <v>31.30100253252552</v>
+        <v>31.30100253252557</v>
       </c>
       <c r="L15" t="n">
-        <v>42.0880606886133</v>
+        <v>42.08806068861337</v>
       </c>
       <c r="M15" t="n">
-        <v>49.11478165803837</v>
+        <v>49.11478165803845</v>
       </c>
       <c r="N15" t="n">
-        <v>50.41470378293263</v>
+        <v>50.41470378293271</v>
       </c>
       <c r="O15" t="n">
-        <v>46.1196046495345</v>
+        <v>46.11960464953457</v>
       </c>
       <c r="P15" t="n">
-        <v>37.01504870742038</v>
+        <v>37.01504870742044</v>
       </c>
       <c r="Q15" t="n">
-        <v>24.74357980570451</v>
+        <v>24.74357980570455</v>
       </c>
       <c r="R15" t="n">
-        <v>12.03511942446238</v>
+        <v>12.0351194244624</v>
       </c>
       <c r="S15" t="n">
-        <v>3.600503727225072</v>
+        <v>3.600503727225078</v>
       </c>
       <c r="T15" t="n">
-        <v>0.7813135596977195</v>
+        <v>0.7813135596977208</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0127526696359802</v>
+        <v>0.01275266963598022</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1625094294595946</v>
+        <v>0.1625094294595948</v>
       </c>
       <c r="H16" t="n">
-        <v>1.44485656374076</v>
+        <v>1.444856563740762</v>
       </c>
       <c r="I16" t="n">
-        <v>4.8871017513849</v>
+        <v>4.887101751384908</v>
       </c>
       <c r="J16" t="n">
-        <v>11.48941666279334</v>
+        <v>11.48941666279335</v>
       </c>
       <c r="K16" t="n">
-        <v>18.88064098630562</v>
+        <v>18.88064098630565</v>
       </c>
       <c r="L16" t="n">
-        <v>24.16072008529282</v>
+        <v>24.16072008529286</v>
       </c>
       <c r="M16" t="n">
-        <v>25.47409174701626</v>
+        <v>25.4740917470163</v>
       </c>
       <c r="N16" t="n">
-        <v>24.86837478266688</v>
+        <v>24.86837478266692</v>
       </c>
       <c r="O16" t="n">
-        <v>22.96996917488888</v>
+        <v>22.96996917488892</v>
       </c>
       <c r="P16" t="n">
-        <v>19.65477681391314</v>
+        <v>19.65477681391317</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.6079486795666</v>
+        <v>13.60794867956662</v>
       </c>
       <c r="R16" t="n">
-        <v>7.307014891883223</v>
+        <v>7.307014891883234</v>
       </c>
       <c r="S16" t="n">
-        <v>2.832096147945843</v>
+        <v>2.832096147945847</v>
       </c>
       <c r="T16" t="n">
-        <v>0.6943584713273584</v>
+        <v>0.6943584713273595</v>
       </c>
       <c r="U16" t="n">
-        <v>0.008864150697796077</v>
+        <v>0.008864150697796091</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3622868961913303</v>
+        <v>0.3622868961913305</v>
       </c>
       <c r="H17" t="n">
-        <v>3.710270675619462</v>
+        <v>3.710270675619465</v>
       </c>
       <c r="I17" t="n">
-        <v>13.96706556541627</v>
+        <v>13.96706556541628</v>
       </c>
       <c r="J17" t="n">
-        <v>30.74864745561895</v>
+        <v>30.74864745561896</v>
       </c>
       <c r="K17" t="n">
-        <v>46.08425177139797</v>
+        <v>46.08425177139799</v>
       </c>
       <c r="L17" t="n">
-        <v>57.17158937071341</v>
+        <v>57.17158937071344</v>
       </c>
       <c r="M17" t="n">
-        <v>63.61440896085597</v>
+        <v>63.61440896085601</v>
       </c>
       <c r="N17" t="n">
-        <v>64.64375660465959</v>
+        <v>64.64375660465963</v>
       </c>
       <c r="O17" t="n">
-        <v>61.04126628065705</v>
+        <v>61.04126628065708</v>
       </c>
       <c r="P17" t="n">
-        <v>52.09730853093357</v>
+        <v>52.09730853093361</v>
       </c>
       <c r="Q17" t="n">
-        <v>39.12290906108154</v>
+        <v>39.12290906108157</v>
       </c>
       <c r="R17" t="n">
-        <v>22.75750424287867</v>
+        <v>22.75750424287869</v>
       </c>
       <c r="S17" t="n">
-        <v>8.255612646959948</v>
+        <v>8.255612646959952</v>
       </c>
       <c r="T17" t="n">
-        <v>1.585910888077549</v>
+        <v>1.58591088807755</v>
       </c>
       <c r="U17" t="n">
-        <v>0.02898295169530642</v>
+        <v>0.02898295169530643</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1938405784668992</v>
+        <v>0.1938405784668993</v>
       </c>
       <c r="H18" t="n">
-        <v>1.872091902561895</v>
+        <v>1.872091902561896</v>
       </c>
       <c r="I18" t="n">
-        <v>6.67389710949631</v>
+        <v>6.673897109496314</v>
       </c>
       <c r="J18" t="n">
-        <v>18.31368377524332</v>
+        <v>18.31368377524333</v>
       </c>
       <c r="K18" t="n">
-        <v>31.30100253252556</v>
+        <v>31.30100253252558</v>
       </c>
       <c r="L18" t="n">
-        <v>42.08806068861335</v>
+        <v>42.08806068861338</v>
       </c>
       <c r="M18" t="n">
-        <v>49.11478165803844</v>
+        <v>49.11478165803847</v>
       </c>
       <c r="N18" t="n">
-        <v>50.4147037829327</v>
+        <v>50.41470378293273</v>
       </c>
       <c r="O18" t="n">
-        <v>46.11960464953456</v>
+        <v>46.11960464953459</v>
       </c>
       <c r="P18" t="n">
-        <v>37.01504870742043</v>
+        <v>37.01504870742045</v>
       </c>
       <c r="Q18" t="n">
-        <v>24.74357980570453</v>
+        <v>24.74357980570455</v>
       </c>
       <c r="R18" t="n">
-        <v>12.03511942446239</v>
+        <v>12.0351194244624</v>
       </c>
       <c r="S18" t="n">
-        <v>3.600503727225077</v>
+        <v>3.600503727225079</v>
       </c>
       <c r="T18" t="n">
-        <v>0.7813135596977205</v>
+        <v>0.781313559697721</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01275266963598021</v>
+        <v>0.01275266963598022</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1625094294595948</v>
+        <v>0.1625094294595949</v>
       </c>
       <c r="H19" t="n">
-        <v>1.444856563740762</v>
+        <v>1.444856563740763</v>
       </c>
       <c r="I19" t="n">
-        <v>4.887101751384907</v>
+        <v>4.887101751384909</v>
       </c>
       <c r="J19" t="n">
-        <v>11.48941666279335</v>
+        <v>11.48941666279336</v>
       </c>
       <c r="K19" t="n">
-        <v>18.88064098630564</v>
+        <v>18.88064098630565</v>
       </c>
       <c r="L19" t="n">
-        <v>24.16072008529285</v>
+        <v>24.16072008529287</v>
       </c>
       <c r="M19" t="n">
-        <v>25.4740917470163</v>
+        <v>25.47409174701631</v>
       </c>
       <c r="N19" t="n">
-        <v>24.86837478266692</v>
+        <v>24.86837478266693</v>
       </c>
       <c r="O19" t="n">
-        <v>22.96996917488891</v>
+        <v>22.96996917488893</v>
       </c>
       <c r="P19" t="n">
-        <v>19.65477681391316</v>
+        <v>19.65477681391318</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.60794867956661</v>
+        <v>13.60794867956662</v>
       </c>
       <c r="R19" t="n">
-        <v>7.307014891883233</v>
+        <v>7.307014891883237</v>
       </c>
       <c r="S19" t="n">
-        <v>2.832096147945846</v>
+        <v>2.832096147945848</v>
       </c>
       <c r="T19" t="n">
-        <v>0.6943584713273593</v>
+        <v>0.6943584713273597</v>
       </c>
       <c r="U19" t="n">
-        <v>0.008864150697796089</v>
+        <v>0.008864150697796095</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3622868961913303</v>
+        <v>0.3622868961913305</v>
       </c>
       <c r="H20" t="n">
-        <v>3.710270675619462</v>
+        <v>3.710270675619465</v>
       </c>
       <c r="I20" t="n">
-        <v>13.96706556541627</v>
+        <v>13.96706556541628</v>
       </c>
       <c r="J20" t="n">
-        <v>30.74864745561895</v>
+        <v>30.74864745561896</v>
       </c>
       <c r="K20" t="n">
-        <v>46.08425177139797</v>
+        <v>46.08425177139799</v>
       </c>
       <c r="L20" t="n">
-        <v>57.17158937071341</v>
+        <v>57.17158937071344</v>
       </c>
       <c r="M20" t="n">
-        <v>63.61440896085597</v>
+        <v>63.61440896085601</v>
       </c>
       <c r="N20" t="n">
-        <v>64.64375660465959</v>
+        <v>64.64375660465963</v>
       </c>
       <c r="O20" t="n">
-        <v>61.04126628065705</v>
+        <v>61.04126628065708</v>
       </c>
       <c r="P20" t="n">
-        <v>52.09730853093357</v>
+        <v>52.09730853093361</v>
       </c>
       <c r="Q20" t="n">
-        <v>39.12290906108154</v>
+        <v>39.12290906108157</v>
       </c>
       <c r="R20" t="n">
-        <v>22.75750424287867</v>
+        <v>22.75750424287869</v>
       </c>
       <c r="S20" t="n">
-        <v>8.255612646959948</v>
+        <v>8.255612646959952</v>
       </c>
       <c r="T20" t="n">
-        <v>1.585910888077549</v>
+        <v>1.58591088807755</v>
       </c>
       <c r="U20" t="n">
-        <v>0.02898295169530642</v>
+        <v>0.02898295169530643</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1938405784668992</v>
+        <v>0.1938405784668993</v>
       </c>
       <c r="H21" t="n">
-        <v>1.872091902561895</v>
+        <v>1.872091902561896</v>
       </c>
       <c r="I21" t="n">
-        <v>6.67389710949631</v>
+        <v>6.673897109496314</v>
       </c>
       <c r="J21" t="n">
-        <v>18.31368377524332</v>
+        <v>18.31368377524333</v>
       </c>
       <c r="K21" t="n">
-        <v>31.30100253252556</v>
+        <v>31.30100253252558</v>
       </c>
       <c r="L21" t="n">
-        <v>42.08806068861335</v>
+        <v>42.08806068861338</v>
       </c>
       <c r="M21" t="n">
-        <v>49.11478165803844</v>
+        <v>49.11478165803847</v>
       </c>
       <c r="N21" t="n">
-        <v>50.4147037829327</v>
+        <v>50.41470378293273</v>
       </c>
       <c r="O21" t="n">
-        <v>46.11960464953456</v>
+        <v>46.11960464953459</v>
       </c>
       <c r="P21" t="n">
-        <v>37.01504870742043</v>
+        <v>37.01504870742045</v>
       </c>
       <c r="Q21" t="n">
-        <v>24.74357980570453</v>
+        <v>24.74357980570455</v>
       </c>
       <c r="R21" t="n">
-        <v>12.03511942446239</v>
+        <v>12.0351194244624</v>
       </c>
       <c r="S21" t="n">
-        <v>3.600503727225077</v>
+        <v>3.600503727225079</v>
       </c>
       <c r="T21" t="n">
-        <v>0.7813135596977205</v>
+        <v>0.781313559697721</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01275266963598021</v>
+        <v>0.01275266963598022</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1625094294595948</v>
+        <v>0.1625094294595949</v>
       </c>
       <c r="H22" t="n">
-        <v>1.444856563740762</v>
+        <v>1.444856563740763</v>
       </c>
       <c r="I22" t="n">
-        <v>4.887101751384907</v>
+        <v>4.887101751384909</v>
       </c>
       <c r="J22" t="n">
-        <v>11.48941666279335</v>
+        <v>11.48941666279336</v>
       </c>
       <c r="K22" t="n">
-        <v>18.88064098630564</v>
+        <v>18.88064098630565</v>
       </c>
       <c r="L22" t="n">
-        <v>24.16072008529285</v>
+        <v>24.16072008529287</v>
       </c>
       <c r="M22" t="n">
-        <v>25.4740917470163</v>
+        <v>25.47409174701631</v>
       </c>
       <c r="N22" t="n">
-        <v>24.86837478266692</v>
+        <v>24.86837478266693</v>
       </c>
       <c r="O22" t="n">
-        <v>22.96996917488891</v>
+        <v>22.96996917488893</v>
       </c>
       <c r="P22" t="n">
-        <v>19.65477681391316</v>
+        <v>19.65477681391318</v>
       </c>
       <c r="Q22" t="n">
-        <v>13.60794867956661</v>
+        <v>13.60794867956662</v>
       </c>
       <c r="R22" t="n">
-        <v>7.307014891883233</v>
+        <v>7.307014891883237</v>
       </c>
       <c r="S22" t="n">
-        <v>2.832096147945846</v>
+        <v>2.832096147945848</v>
       </c>
       <c r="T22" t="n">
-        <v>0.6943584713273593</v>
+        <v>0.6943584713273597</v>
       </c>
       <c r="U22" t="n">
-        <v>0.008864150697796089</v>
+        <v>0.008864150697796095</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3622868961913302</v>
+        <v>0.3622868961913305</v>
       </c>
       <c r="H23" t="n">
-        <v>3.710270675619462</v>
+        <v>3.710270675619465</v>
       </c>
       <c r="I23" t="n">
-        <v>13.96706556541627</v>
+        <v>13.96706556541628</v>
       </c>
       <c r="J23" t="n">
-        <v>30.74864745561894</v>
+        <v>30.74864745561896</v>
       </c>
       <c r="K23" t="n">
-        <v>46.08425177139796</v>
+        <v>46.08425177139799</v>
       </c>
       <c r="L23" t="n">
-        <v>57.17158937071339</v>
+        <v>57.17158937071344</v>
       </c>
       <c r="M23" t="n">
-        <v>63.61440896085596</v>
+        <v>63.61440896085601</v>
       </c>
       <c r="N23" t="n">
-        <v>64.64375660465959</v>
+        <v>64.64375660465963</v>
       </c>
       <c r="O23" t="n">
-        <v>61.04126628065704</v>
+        <v>61.04126628065708</v>
       </c>
       <c r="P23" t="n">
-        <v>52.09730853093357</v>
+        <v>52.09730853093361</v>
       </c>
       <c r="Q23" t="n">
-        <v>39.12290906108154</v>
+        <v>39.12290906108157</v>
       </c>
       <c r="R23" t="n">
-        <v>22.75750424287867</v>
+        <v>22.75750424287869</v>
       </c>
       <c r="S23" t="n">
-        <v>8.255612646959946</v>
+        <v>8.255612646959952</v>
       </c>
       <c r="T23" t="n">
-        <v>1.585910888077549</v>
+        <v>1.58591088807755</v>
       </c>
       <c r="U23" t="n">
-        <v>0.02898295169530641</v>
+        <v>0.02898295169530643</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1938405784668991</v>
+        <v>0.1938405784668993</v>
       </c>
       <c r="H24" t="n">
-        <v>1.872091902561895</v>
+        <v>1.872091902561896</v>
       </c>
       <c r="I24" t="n">
-        <v>6.673897109496309</v>
+        <v>6.673897109496314</v>
       </c>
       <c r="J24" t="n">
-        <v>18.31368377524331</v>
+        <v>18.31368377524333</v>
       </c>
       <c r="K24" t="n">
-        <v>31.30100253252555</v>
+        <v>31.30100253252558</v>
       </c>
       <c r="L24" t="n">
-        <v>42.08806068861335</v>
+        <v>42.08806068861338</v>
       </c>
       <c r="M24" t="n">
-        <v>49.11478165803843</v>
+        <v>49.11478165803847</v>
       </c>
       <c r="N24" t="n">
-        <v>50.41470378293269</v>
+        <v>50.41470378293273</v>
       </c>
       <c r="O24" t="n">
-        <v>46.11960464953455</v>
+        <v>46.11960464953459</v>
       </c>
       <c r="P24" t="n">
-        <v>37.01504870742042</v>
+        <v>37.01504870742045</v>
       </c>
       <c r="Q24" t="n">
-        <v>24.74357980570453</v>
+        <v>24.74357980570455</v>
       </c>
       <c r="R24" t="n">
-        <v>12.03511942446239</v>
+        <v>12.0351194244624</v>
       </c>
       <c r="S24" t="n">
-        <v>3.600503727225076</v>
+        <v>3.600503727225079</v>
       </c>
       <c r="T24" t="n">
-        <v>0.7813135596977204</v>
+        <v>0.781313559697721</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01275266963598021</v>
+        <v>0.01275266963598022</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1625094294595948</v>
+        <v>0.1625094294595949</v>
       </c>
       <c r="H25" t="n">
-        <v>1.444856563740762</v>
+        <v>1.444856563740763</v>
       </c>
       <c r="I25" t="n">
-        <v>4.887101751384906</v>
+        <v>4.887101751384909</v>
       </c>
       <c r="J25" t="n">
-        <v>11.48941666279335</v>
+        <v>11.48941666279336</v>
       </c>
       <c r="K25" t="n">
-        <v>18.88064098630564</v>
+        <v>18.88064098630565</v>
       </c>
       <c r="L25" t="n">
-        <v>24.16072008529284</v>
+        <v>24.16072008529287</v>
       </c>
       <c r="M25" t="n">
-        <v>25.47409174701629</v>
+        <v>25.47409174701631</v>
       </c>
       <c r="N25" t="n">
-        <v>24.86837478266691</v>
+        <v>24.86837478266693</v>
       </c>
       <c r="O25" t="n">
-        <v>22.96996917488891</v>
+        <v>22.96996917488893</v>
       </c>
       <c r="P25" t="n">
-        <v>19.65477681391316</v>
+        <v>19.65477681391318</v>
       </c>
       <c r="Q25" t="n">
-        <v>13.60794867956661</v>
+        <v>13.60794867956662</v>
       </c>
       <c r="R25" t="n">
-        <v>7.307014891883231</v>
+        <v>7.307014891883237</v>
       </c>
       <c r="S25" t="n">
-        <v>2.832096147945846</v>
+        <v>2.832096147945848</v>
       </c>
       <c r="T25" t="n">
-        <v>0.6943584713273592</v>
+        <v>0.6943584713273597</v>
       </c>
       <c r="U25" t="n">
-        <v>0.008864150697796088</v>
+        <v>0.008864150697796095</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3622868961913302</v>
+        <v>0.3622868961913305</v>
       </c>
       <c r="H26" t="n">
-        <v>3.710270675619462</v>
+        <v>3.710270675619465</v>
       </c>
       <c r="I26" t="n">
-        <v>13.96706556541627</v>
+        <v>13.96706556541628</v>
       </c>
       <c r="J26" t="n">
-        <v>30.74864745561894</v>
+        <v>30.74864745561896</v>
       </c>
       <c r="K26" t="n">
-        <v>46.08425177139796</v>
+        <v>46.08425177139799</v>
       </c>
       <c r="L26" t="n">
-        <v>57.17158937071339</v>
+        <v>57.17158937071344</v>
       </c>
       <c r="M26" t="n">
-        <v>63.61440896085596</v>
+        <v>63.61440896085601</v>
       </c>
       <c r="N26" t="n">
-        <v>64.64375660465959</v>
+        <v>64.64375660465963</v>
       </c>
       <c r="O26" t="n">
-        <v>61.04126628065704</v>
+        <v>61.04126628065708</v>
       </c>
       <c r="P26" t="n">
-        <v>52.09730853093357</v>
+        <v>52.09730853093361</v>
       </c>
       <c r="Q26" t="n">
-        <v>39.12290906108154</v>
+        <v>39.12290906108157</v>
       </c>
       <c r="R26" t="n">
-        <v>22.75750424287867</v>
+        <v>22.75750424287869</v>
       </c>
       <c r="S26" t="n">
-        <v>8.255612646959946</v>
+        <v>8.255612646959952</v>
       </c>
       <c r="T26" t="n">
-        <v>1.585910888077549</v>
+        <v>1.58591088807755</v>
       </c>
       <c r="U26" t="n">
-        <v>0.02898295169530641</v>
+        <v>0.02898295169530643</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1938405784668991</v>
+        <v>0.1938405784668993</v>
       </c>
       <c r="H27" t="n">
-        <v>1.872091902561895</v>
+        <v>1.872091902561896</v>
       </c>
       <c r="I27" t="n">
-        <v>6.673897109496309</v>
+        <v>6.673897109496314</v>
       </c>
       <c r="J27" t="n">
-        <v>18.31368377524331</v>
+        <v>18.31368377524333</v>
       </c>
       <c r="K27" t="n">
-        <v>31.30100253252555</v>
+        <v>31.30100253252558</v>
       </c>
       <c r="L27" t="n">
-        <v>42.08806068861335</v>
+        <v>42.08806068861338</v>
       </c>
       <c r="M27" t="n">
-        <v>49.11478165803843</v>
+        <v>49.11478165803847</v>
       </c>
       <c r="N27" t="n">
-        <v>50.41470378293269</v>
+        <v>50.41470378293273</v>
       </c>
       <c r="O27" t="n">
-        <v>46.11960464953455</v>
+        <v>46.11960464953459</v>
       </c>
       <c r="P27" t="n">
-        <v>37.01504870742042</v>
+        <v>37.01504870742045</v>
       </c>
       <c r="Q27" t="n">
-        <v>24.74357980570453</v>
+        <v>24.74357980570455</v>
       </c>
       <c r="R27" t="n">
-        <v>12.03511942446239</v>
+        <v>12.0351194244624</v>
       </c>
       <c r="S27" t="n">
-        <v>3.600503727225076</v>
+        <v>3.600503727225079</v>
       </c>
       <c r="T27" t="n">
-        <v>0.7813135596977204</v>
+        <v>0.781313559697721</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01275266963598021</v>
+        <v>0.01275266963598022</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1625094294595948</v>
+        <v>0.1625094294595949</v>
       </c>
       <c r="H28" t="n">
-        <v>1.444856563740762</v>
+        <v>1.444856563740763</v>
       </c>
       <c r="I28" t="n">
-        <v>4.887101751384906</v>
+        <v>4.887101751384909</v>
       </c>
       <c r="J28" t="n">
-        <v>11.48941666279335</v>
+        <v>11.48941666279336</v>
       </c>
       <c r="K28" t="n">
-        <v>18.88064098630564</v>
+        <v>18.88064098630565</v>
       </c>
       <c r="L28" t="n">
-        <v>24.16072008529284</v>
+        <v>24.16072008529287</v>
       </c>
       <c r="M28" t="n">
-        <v>25.47409174701629</v>
+        <v>25.47409174701631</v>
       </c>
       <c r="N28" t="n">
-        <v>24.86837478266691</v>
+        <v>24.86837478266693</v>
       </c>
       <c r="O28" t="n">
-        <v>22.96996917488891</v>
+        <v>22.96996917488893</v>
       </c>
       <c r="P28" t="n">
-        <v>19.65477681391316</v>
+        <v>19.65477681391318</v>
       </c>
       <c r="Q28" t="n">
-        <v>13.60794867956661</v>
+        <v>13.60794867956662</v>
       </c>
       <c r="R28" t="n">
-        <v>7.307014891883231</v>
+        <v>7.307014891883237</v>
       </c>
       <c r="S28" t="n">
-        <v>2.832096147945846</v>
+        <v>2.832096147945848</v>
       </c>
       <c r="T28" t="n">
-        <v>0.6943584713273592</v>
+        <v>0.6943584713273597</v>
       </c>
       <c r="U28" t="n">
-        <v>0.008864150697796088</v>
+        <v>0.008864150697796095</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.3622868961913302</v>
+        <v>0.3622868961913305</v>
       </c>
       <c r="H29" t="n">
-        <v>3.710270675619462</v>
+        <v>3.710270675619465</v>
       </c>
       <c r="I29" t="n">
-        <v>13.96706556541627</v>
+        <v>13.96706556541628</v>
       </c>
       <c r="J29" t="n">
-        <v>30.74864745561894</v>
+        <v>30.74864745561896</v>
       </c>
       <c r="K29" t="n">
-        <v>46.08425177139796</v>
+        <v>46.08425177139799</v>
       </c>
       <c r="L29" t="n">
-        <v>57.17158937071339</v>
+        <v>57.17158937071344</v>
       </c>
       <c r="M29" t="n">
-        <v>63.61440896085596</v>
+        <v>63.61440896085601</v>
       </c>
       <c r="N29" t="n">
-        <v>64.64375660465959</v>
+        <v>64.64375660465963</v>
       </c>
       <c r="O29" t="n">
-        <v>61.04126628065704</v>
+        <v>61.04126628065708</v>
       </c>
       <c r="P29" t="n">
-        <v>52.09730853093357</v>
+        <v>52.09730853093361</v>
       </c>
       <c r="Q29" t="n">
-        <v>39.12290906108154</v>
+        <v>39.12290906108157</v>
       </c>
       <c r="R29" t="n">
-        <v>22.75750424287867</v>
+        <v>22.75750424287869</v>
       </c>
       <c r="S29" t="n">
-        <v>8.255612646959946</v>
+        <v>8.255612646959952</v>
       </c>
       <c r="T29" t="n">
-        <v>1.585910888077549</v>
+        <v>1.58591088807755</v>
       </c>
       <c r="U29" t="n">
-        <v>0.02898295169530641</v>
+        <v>0.02898295169530643</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1938405784668991</v>
+        <v>0.1938405784668993</v>
       </c>
       <c r="H30" t="n">
-        <v>1.872091902561895</v>
+        <v>1.872091902561896</v>
       </c>
       <c r="I30" t="n">
-        <v>6.673897109496309</v>
+        <v>6.673897109496314</v>
       </c>
       <c r="J30" t="n">
-        <v>18.31368377524331</v>
+        <v>18.31368377524333</v>
       </c>
       <c r="K30" t="n">
-        <v>31.30100253252555</v>
+        <v>31.30100253252558</v>
       </c>
       <c r="L30" t="n">
-        <v>42.08806068861335</v>
+        <v>42.08806068861338</v>
       </c>
       <c r="M30" t="n">
-        <v>49.11478165803843</v>
+        <v>49.11478165803847</v>
       </c>
       <c r="N30" t="n">
-        <v>50.41470378293269</v>
+        <v>50.41470378293273</v>
       </c>
       <c r="O30" t="n">
-        <v>46.11960464953455</v>
+        <v>46.11960464953459</v>
       </c>
       <c r="P30" t="n">
-        <v>37.01504870742042</v>
+        <v>37.01504870742045</v>
       </c>
       <c r="Q30" t="n">
-        <v>24.74357980570453</v>
+        <v>24.74357980570455</v>
       </c>
       <c r="R30" t="n">
-        <v>12.03511942446239</v>
+        <v>12.0351194244624</v>
       </c>
       <c r="S30" t="n">
-        <v>3.600503727225076</v>
+        <v>3.600503727225079</v>
       </c>
       <c r="T30" t="n">
-        <v>0.7813135596977204</v>
+        <v>0.781313559697721</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01275266963598021</v>
+        <v>0.01275266963598022</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1625094294595948</v>
+        <v>0.1625094294595949</v>
       </c>
       <c r="H31" t="n">
-        <v>1.444856563740762</v>
+        <v>1.444856563740763</v>
       </c>
       <c r="I31" t="n">
-        <v>4.887101751384906</v>
+        <v>4.887101751384909</v>
       </c>
       <c r="J31" t="n">
-        <v>11.48941666279335</v>
+        <v>11.48941666279336</v>
       </c>
       <c r="K31" t="n">
-        <v>18.88064098630564</v>
+        <v>18.88064098630565</v>
       </c>
       <c r="L31" t="n">
-        <v>24.16072008529284</v>
+        <v>24.16072008529287</v>
       </c>
       <c r="M31" t="n">
-        <v>25.47409174701629</v>
+        <v>25.47409174701631</v>
       </c>
       <c r="N31" t="n">
-        <v>24.86837478266691</v>
+        <v>24.86837478266693</v>
       </c>
       <c r="O31" t="n">
-        <v>22.96996917488891</v>
+        <v>22.96996917488893</v>
       </c>
       <c r="P31" t="n">
-        <v>19.65477681391316</v>
+        <v>19.65477681391318</v>
       </c>
       <c r="Q31" t="n">
-        <v>13.60794867956661</v>
+        <v>13.60794867956662</v>
       </c>
       <c r="R31" t="n">
-        <v>7.307014891883231</v>
+        <v>7.307014891883237</v>
       </c>
       <c r="S31" t="n">
-        <v>2.832096147945846</v>
+        <v>2.832096147945848</v>
       </c>
       <c r="T31" t="n">
-        <v>0.6943584713273592</v>
+        <v>0.6943584713273597</v>
       </c>
       <c r="U31" t="n">
-        <v>0.008864150697796088</v>
+        <v>0.008864150697796095</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.3622868961913302</v>
+        <v>0.3622868961913305</v>
       </c>
       <c r="H32" t="n">
-        <v>3.710270675619462</v>
+        <v>3.710270675619465</v>
       </c>
       <c r="I32" t="n">
-        <v>13.96706556541627</v>
+        <v>13.96706556541628</v>
       </c>
       <c r="J32" t="n">
-        <v>30.74864745561894</v>
+        <v>30.74864745561896</v>
       </c>
       <c r="K32" t="n">
-        <v>46.08425177139796</v>
+        <v>46.08425177139799</v>
       </c>
       <c r="L32" t="n">
-        <v>57.17158937071339</v>
+        <v>57.17158937071344</v>
       </c>
       <c r="M32" t="n">
-        <v>63.61440896085596</v>
+        <v>63.61440896085601</v>
       </c>
       <c r="N32" t="n">
-        <v>64.64375660465959</v>
+        <v>64.64375660465963</v>
       </c>
       <c r="O32" t="n">
-        <v>61.04126628065704</v>
+        <v>61.04126628065708</v>
       </c>
       <c r="P32" t="n">
-        <v>52.09730853093357</v>
+        <v>52.09730853093361</v>
       </c>
       <c r="Q32" t="n">
-        <v>39.12290906108154</v>
+        <v>39.12290906108157</v>
       </c>
       <c r="R32" t="n">
-        <v>22.75750424287867</v>
+        <v>22.75750424287869</v>
       </c>
       <c r="S32" t="n">
-        <v>8.255612646959946</v>
+        <v>8.255612646959952</v>
       </c>
       <c r="T32" t="n">
-        <v>1.585910888077549</v>
+        <v>1.58591088807755</v>
       </c>
       <c r="U32" t="n">
-        <v>0.02898295169530641</v>
+        <v>0.02898295169530643</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1938405784668991</v>
+        <v>0.1938405784668993</v>
       </c>
       <c r="H33" t="n">
-        <v>1.872091902561895</v>
+        <v>1.872091902561896</v>
       </c>
       <c r="I33" t="n">
-        <v>6.673897109496309</v>
+        <v>6.673897109496314</v>
       </c>
       <c r="J33" t="n">
-        <v>18.31368377524331</v>
+        <v>18.31368377524333</v>
       </c>
       <c r="K33" t="n">
-        <v>31.30100253252555</v>
+        <v>31.30100253252558</v>
       </c>
       <c r="L33" t="n">
-        <v>42.08806068861335</v>
+        <v>42.08806068861338</v>
       </c>
       <c r="M33" t="n">
-        <v>49.11478165803843</v>
+        <v>49.11478165803847</v>
       </c>
       <c r="N33" t="n">
-        <v>50.41470378293269</v>
+        <v>50.41470378293273</v>
       </c>
       <c r="O33" t="n">
-        <v>46.11960464953455</v>
+        <v>46.11960464953459</v>
       </c>
       <c r="P33" t="n">
-        <v>37.01504870742042</v>
+        <v>37.01504870742045</v>
       </c>
       <c r="Q33" t="n">
-        <v>24.74357980570453</v>
+        <v>24.74357980570455</v>
       </c>
       <c r="R33" t="n">
-        <v>12.03511942446239</v>
+        <v>12.0351194244624</v>
       </c>
       <c r="S33" t="n">
-        <v>3.600503727225076</v>
+        <v>3.600503727225079</v>
       </c>
       <c r="T33" t="n">
-        <v>0.7813135596977204</v>
+        <v>0.781313559697721</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01275266963598021</v>
+        <v>0.01275266963598022</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1625094294595948</v>
+        <v>0.1625094294595949</v>
       </c>
       <c r="H34" t="n">
-        <v>1.444856563740762</v>
+        <v>1.444856563740763</v>
       </c>
       <c r="I34" t="n">
-        <v>4.887101751384906</v>
+        <v>4.887101751384909</v>
       </c>
       <c r="J34" t="n">
-        <v>11.48941666279335</v>
+        <v>11.48941666279336</v>
       </c>
       <c r="K34" t="n">
-        <v>18.88064098630564</v>
+        <v>18.88064098630565</v>
       </c>
       <c r="L34" t="n">
-        <v>24.16072008529284</v>
+        <v>24.16072008529287</v>
       </c>
       <c r="M34" t="n">
-        <v>25.47409174701629</v>
+        <v>25.47409174701631</v>
       </c>
       <c r="N34" t="n">
-        <v>24.86837478266691</v>
+        <v>24.86837478266693</v>
       </c>
       <c r="O34" t="n">
-        <v>22.96996917488891</v>
+        <v>22.96996917488893</v>
       </c>
       <c r="P34" t="n">
-        <v>19.65477681391316</v>
+        <v>19.65477681391318</v>
       </c>
       <c r="Q34" t="n">
-        <v>13.60794867956661</v>
+        <v>13.60794867956662</v>
       </c>
       <c r="R34" t="n">
-        <v>7.307014891883231</v>
+        <v>7.307014891883237</v>
       </c>
       <c r="S34" t="n">
-        <v>2.832096147945846</v>
+        <v>2.832096147945848</v>
       </c>
       <c r="T34" t="n">
-        <v>0.6943584713273592</v>
+        <v>0.6943584713273597</v>
       </c>
       <c r="U34" t="n">
-        <v>0.008864150697796088</v>
+        <v>0.008864150697796095</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.3622868961913302</v>
+        <v>0.3622868961913303</v>
       </c>
       <c r="H35" t="n">
         <v>3.710270675619462</v>
@@ -33657,22 +33657,22 @@
         <v>13.96706556541627</v>
       </c>
       <c r="J35" t="n">
-        <v>30.74864745561894</v>
+        <v>30.74864745561895</v>
       </c>
       <c r="K35" t="n">
-        <v>46.08425177139796</v>
+        <v>46.08425177139797</v>
       </c>
       <c r="L35" t="n">
-        <v>57.17158937071339</v>
+        <v>57.17158937071341</v>
       </c>
       <c r="M35" t="n">
-        <v>63.61440896085596</v>
+        <v>63.61440896085597</v>
       </c>
       <c r="N35" t="n">
         <v>64.64375660465959</v>
       </c>
       <c r="O35" t="n">
-        <v>61.04126628065704</v>
+        <v>61.04126628065705</v>
       </c>
       <c r="P35" t="n">
         <v>52.09730853093357</v>
@@ -33684,13 +33684,13 @@
         <v>22.75750424287867</v>
       </c>
       <c r="S35" t="n">
-        <v>8.255612646959946</v>
+        <v>8.255612646959948</v>
       </c>
       <c r="T35" t="n">
         <v>1.585910888077549</v>
       </c>
       <c r="U35" t="n">
-        <v>0.02898295169530641</v>
+        <v>0.02898295169530642</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,34 +33727,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.1938405784668991</v>
+        <v>0.1938405784668992</v>
       </c>
       <c r="H36" t="n">
         <v>1.872091902561895</v>
       </c>
       <c r="I36" t="n">
-        <v>6.673897109496309</v>
+        <v>6.67389710949631</v>
       </c>
       <c r="J36" t="n">
-        <v>18.31368377524331</v>
+        <v>18.31368377524332</v>
       </c>
       <c r="K36" t="n">
-        <v>31.30100253252555</v>
+        <v>31.30100253252556</v>
       </c>
       <c r="L36" t="n">
         <v>42.08806068861335</v>
       </c>
       <c r="M36" t="n">
-        <v>49.11478165803843</v>
+        <v>49.11478165803844</v>
       </c>
       <c r="N36" t="n">
-        <v>50.41470378293269</v>
+        <v>50.4147037829327</v>
       </c>
       <c r="O36" t="n">
-        <v>46.11960464953455</v>
+        <v>46.11960464953456</v>
       </c>
       <c r="P36" t="n">
-        <v>37.01504870742042</v>
+        <v>37.01504870742043</v>
       </c>
       <c r="Q36" t="n">
         <v>24.74357980570453</v>
@@ -33763,10 +33763,10 @@
         <v>12.03511942446239</v>
       </c>
       <c r="S36" t="n">
-        <v>3.600503727225076</v>
+        <v>3.600503727225077</v>
       </c>
       <c r="T36" t="n">
-        <v>0.7813135596977204</v>
+        <v>0.7813135596977205</v>
       </c>
       <c r="U36" t="n">
         <v>0.01275266963598021</v>
@@ -33812,7 +33812,7 @@
         <v>1.444856563740762</v>
       </c>
       <c r="I37" t="n">
-        <v>4.887101751384906</v>
+        <v>4.887101751384907</v>
       </c>
       <c r="J37" t="n">
         <v>11.48941666279335</v>
@@ -33821,13 +33821,13 @@
         <v>18.88064098630564</v>
       </c>
       <c r="L37" t="n">
-        <v>24.16072008529284</v>
+        <v>24.16072008529285</v>
       </c>
       <c r="M37" t="n">
-        <v>25.47409174701629</v>
+        <v>25.4740917470163</v>
       </c>
       <c r="N37" t="n">
-        <v>24.86837478266691</v>
+        <v>24.86837478266692</v>
       </c>
       <c r="O37" t="n">
         <v>22.96996917488891</v>
@@ -33839,16 +33839,16 @@
         <v>13.60794867956661</v>
       </c>
       <c r="R37" t="n">
-        <v>7.307014891883231</v>
+        <v>7.307014891883233</v>
       </c>
       <c r="S37" t="n">
         <v>2.832096147945846</v>
       </c>
       <c r="T37" t="n">
-        <v>0.6943584713273592</v>
+        <v>0.6943584713273593</v>
       </c>
       <c r="U37" t="n">
-        <v>0.008864150697796088</v>
+        <v>0.008864150697796089</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>220.6696226073169</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N2" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>229.9609751381512</v>
@@ -34719,7 +34719,7 @@
         <v>229.9609751381512</v>
       </c>
       <c r="Q2" t="n">
-        <v>74.55874088122788</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
         <v>229.9609751381512</v>
@@ -34789,16 +34789,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>220.6696226073169</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Q3" t="n">
-        <v>229.9609751381512</v>
+        <v>106.4120648096125</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34868,7 +34868,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N4" t="n">
-        <v>185.0400343749588</v>
+        <v>185.0400343749589</v>
       </c>
       <c r="O4" t="n">
         <v>164.3482495370789</v>
@@ -34944,16 +34944,16 @@
         <v>229.9609751381512</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N5" t="n">
-        <v>229.9609751381512</v>
+        <v>74.55874088122788</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>74.55874088122788</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M6" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="N6" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>229.9609751381512</v>
+        <v>106.4120648096125</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>106.4120648096125</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,25 +35175,25 @@
         <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>117.8070290083198</v>
+      </c>
+      <c r="P8" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
       <c r="Q8" t="n">
-        <v>74.55874088122788</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35257,22 +35257,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M9" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>220.6696226073169</v>
       </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
       <c r="Q9" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>176.8595291817079</v>
+        <v>176.859529181708</v>
       </c>
       <c r="K11" t="n">
         <v>408.6926922031776</v>
@@ -35421,16 +35421,16 @@
         <v>615.1304696119474</v>
       </c>
       <c r="N11" t="n">
-        <v>597.7864673495707</v>
+        <v>597.7864673495708</v>
       </c>
       <c r="O11" t="n">
-        <v>505.5257116264433</v>
+        <v>505.5257116264434</v>
       </c>
       <c r="P11" t="n">
-        <v>403.8018460375212</v>
+        <v>403.8018460375213</v>
       </c>
       <c r="Q11" t="n">
-        <v>225.8355960721406</v>
+        <v>225.8355960721407</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>35.21976006611278</v>
+        <v>39.82685648669936</v>
       </c>
       <c r="K12" t="n">
-        <v>354.2698369388148</v>
+        <v>354.2698369388149</v>
       </c>
       <c r="L12" t="n">
         <v>530.5386525050914</v>
@@ -35500,16 +35500,16 @@
         <v>683.2275590587265</v>
       </c>
       <c r="N12" t="n">
-        <v>712.8166949047095</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>446.7336029664077</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>261.4759955177151</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>68.055916252023</v>
+        <v>68.05591625202297</v>
       </c>
       <c r="K13" t="n">
         <v>188.1832857345043</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>176.8595291817079</v>
+        <v>176.859529181708</v>
       </c>
       <c r="K14" t="n">
         <v>408.6926922031776</v>
@@ -35658,16 +35658,16 @@
         <v>615.1304696119474</v>
       </c>
       <c r="N14" t="n">
-        <v>597.7864673495707</v>
+        <v>597.7864673495708</v>
       </c>
       <c r="O14" t="n">
-        <v>505.5257116264432</v>
+        <v>505.5257116264434</v>
       </c>
       <c r="P14" t="n">
-        <v>403.8018460375217</v>
+        <v>403.8018460375213</v>
       </c>
       <c r="Q14" t="n">
-        <v>225.8355960721406</v>
+        <v>225.8355960721407</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>354.2698369388149</v>
       </c>
       <c r="L15" t="n">
-        <v>530.5386525050914</v>
+        <v>2.508245159446913</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>683.2275590587265</v>
       </c>
       <c r="N15" t="n">
-        <v>712.8166949047095</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>567.8572638323436</v>
+        <v>567.8572638323437</v>
       </c>
       <c r="P15" t="n">
-        <v>243.3838967135951</v>
+        <v>446.7336029664077</v>
       </c>
       <c r="Q15" t="n">
         <v>261.4759955177151</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>68.05591625202298</v>
+        <v>68.05591625202297</v>
       </c>
       <c r="K16" t="n">
         <v>188.1832857345043</v>
@@ -35883,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>176.8595291817079</v>
+        <v>176.859529181708</v>
       </c>
       <c r="K17" t="n">
         <v>408.6926922031776</v>
       </c>
       <c r="L17" t="n">
-        <v>555.4749143389243</v>
+        <v>555.4749143389245</v>
       </c>
       <c r="M17" t="n">
-        <v>615.1304696119474</v>
+        <v>615.1304696119475</v>
       </c>
       <c r="N17" t="n">
         <v>597.7864673495708</v>
@@ -35962,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>132.5712415729477</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>354.2698369388149</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>2.508245159446798</v>
       </c>
       <c r="M18" t="n">
-        <v>683.2275590587265</v>
+        <v>683.2275590587266</v>
       </c>
       <c r="N18" t="n">
-        <v>437.7942674188429</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>567.8572638323437</v>
       </c>
       <c r="P18" t="n">
         <v>446.7336029664077</v>
@@ -36120,16 +36120,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>176.8595291817079</v>
+        <v>176.859529181708</v>
       </c>
       <c r="K20" t="n">
         <v>408.6926922031776</v>
       </c>
       <c r="L20" t="n">
-        <v>555.4749143389243</v>
+        <v>555.4749143389245</v>
       </c>
       <c r="M20" t="n">
-        <v>615.1304696119474</v>
+        <v>615.1304696119475</v>
       </c>
       <c r="N20" t="n">
         <v>597.7864673495708</v>
@@ -36199,19 +36199,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>132.5712415729477</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>354.2698369388149</v>
       </c>
       <c r="L21" t="n">
-        <v>530.5386525050914</v>
+        <v>530.5386525050915</v>
       </c>
       <c r="M21" t="n">
-        <v>509.4669886518969</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>22.62591014013417</v>
       </c>
       <c r="O21" t="n">
         <v>567.8572638323437</v>
@@ -36290,7 +36290,7 @@
         <v>300.2883902611969</v>
       </c>
       <c r="N22" t="n">
-        <v>296.5493962190144</v>
+        <v>296.5493962190152</v>
       </c>
       <c r="O22" t="n">
         <v>273.9592057733565</v>
@@ -36357,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>176.8595291817079</v>
+        <v>176.859529181708</v>
       </c>
       <c r="K23" t="n">
         <v>408.6926922031776</v>
       </c>
       <c r="L23" t="n">
-        <v>555.4749143389243</v>
+        <v>555.4749143389245</v>
       </c>
       <c r="M23" t="n">
-        <v>615.1304696119474</v>
+        <v>615.1304696119475</v>
       </c>
       <c r="N23" t="n">
         <v>597.7864673495708</v>
@@ -36439,16 +36439,16 @@
         <v>132.5712415729477</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>354.2698369388149</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>194.617704679331</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>712.8166949047095</v>
+        <v>553.1645626452256</v>
       </c>
       <c r="O24" t="n">
         <v>567.8572638323437</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>68.05591625202365</v>
+        <v>68.05591625202297</v>
       </c>
       <c r="K25" t="n">
         <v>188.1832857345043</v>
@@ -36530,13 +36530,13 @@
         <v>296.5493962190144</v>
       </c>
       <c r="O25" t="n">
-        <v>273.9592057733564</v>
+        <v>273.9592057733565</v>
       </c>
       <c r="P25" t="n">
         <v>227.38280001326</v>
       </c>
       <c r="Q25" t="n">
-        <v>103.7056997511078</v>
+        <v>103.7056997511085</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,16 +36594,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>176.8595291817079</v>
+        <v>176.859529181708</v>
       </c>
       <c r="K26" t="n">
         <v>408.6926922031776</v>
       </c>
       <c r="L26" t="n">
-        <v>555.4749143389243</v>
+        <v>555.4749143389245</v>
       </c>
       <c r="M26" t="n">
-        <v>615.1304696119474</v>
+        <v>615.1304696119475</v>
       </c>
       <c r="N26" t="n">
         <v>597.7864673495708</v>
@@ -36679,19 +36679,19 @@
         <v>354.2698369388149</v>
       </c>
       <c r="L27" t="n">
-        <v>171.7111754805414</v>
+        <v>530.5386525050915</v>
       </c>
       <c r="M27" t="n">
-        <v>683.2275590587265</v>
+        <v>22.62591014013417</v>
       </c>
       <c r="N27" t="n">
-        <v>712.8166949047095</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>567.8572638323437</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>446.7336029664077</v>
       </c>
       <c r="Q27" t="n">
         <v>261.4759955177151</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>68.05591625202293</v>
+        <v>68.05591625202297</v>
       </c>
       <c r="K28" t="n">
         <v>188.1832857345043</v>
@@ -36767,13 +36767,13 @@
         <v>296.5493962190144</v>
       </c>
       <c r="O28" t="n">
-        <v>273.9592057733564</v>
+        <v>273.9592057733565</v>
       </c>
       <c r="P28" t="n">
         <v>227.38280001326</v>
       </c>
       <c r="Q28" t="n">
-        <v>103.7056997511077</v>
+        <v>103.7056997511078</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>176.8595291817079</v>
+        <v>176.859529181708</v>
       </c>
       <c r="K29" t="n">
         <v>408.6926922031776</v>
       </c>
       <c r="L29" t="n">
-        <v>555.4749143389243</v>
+        <v>555.4749143389245</v>
       </c>
       <c r="M29" t="n">
-        <v>615.1304696119474</v>
+        <v>615.1304696119475</v>
       </c>
       <c r="N29" t="n">
         <v>597.7864673495708</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>132.5712415729477</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>354.2698369388149</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>530.5386525050914</v>
+        <v>352.1709856776748</v>
       </c>
       <c r="M30" t="n">
-        <v>22.62591014013417</v>
+        <v>683.2275590587266</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>712.8166949047096</v>
       </c>
       <c r="O30" t="n">
         <v>567.8572638323437</v>
       </c>
       <c r="P30" t="n">
-        <v>446.7336029664077</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>261.4759955177151</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>68.05591625202294</v>
+        <v>68.05591625202297</v>
       </c>
       <c r="K31" t="n">
         <v>188.1832857345043</v>
@@ -37004,7 +37004,7 @@
         <v>296.5493962190144</v>
       </c>
       <c r="O31" t="n">
-        <v>273.9592057733564</v>
+        <v>273.9592057733565</v>
       </c>
       <c r="P31" t="n">
         <v>227.38280001326</v>
@@ -37068,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>176.8595291817079</v>
+        <v>176.859529181708</v>
       </c>
       <c r="K32" t="n">
         <v>408.6926922031776</v>
       </c>
       <c r="L32" t="n">
-        <v>555.4749143389243</v>
+        <v>555.4749143389245</v>
       </c>
       <c r="M32" t="n">
-        <v>615.1304696119474</v>
+        <v>615.1304696119475</v>
       </c>
       <c r="N32" t="n">
         <v>597.7864673495708</v>
@@ -37147,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>132.5712415729477</v>
       </c>
       <c r="K33" t="n">
-        <v>327.1889462522788</v>
+        <v>354.2698369388149</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>530.5386525050915</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>712.8166949047095</v>
+        <v>22.62591014013417</v>
       </c>
       <c r="O33" t="n">
         <v>567.8572638323437</v>
@@ -37384,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>132.5712415729477</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>354.2698369388149</v>
       </c>
       <c r="L36" t="n">
-        <v>224.206840525314</v>
+        <v>530.5386525050914</v>
       </c>
       <c r="M36" t="n">
-        <v>683.2275590587265</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>155.197151713082</v>
       </c>
       <c r="O36" t="n">
         <v>567.8572638323437</v>
@@ -37469,7 +37469,7 @@
         <v>188.1832857345043</v>
       </c>
       <c r="L37" t="n">
-        <v>276.5872019687022</v>
+        <v>276.5872019687015</v>
       </c>
       <c r="M37" t="n">
         <v>300.2883902611969</v>
@@ -37484,7 +37484,7 @@
         <v>227.38280001326</v>
       </c>
       <c r="Q37" t="n">
-        <v>103.7056997511078</v>
+        <v>103.7056997511085</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37639,10 +37639,10 @@
         <v>567.8572638323437</v>
       </c>
       <c r="P39" t="n">
-        <v>243.3838967135951</v>
+        <v>446.7336029664077</v>
       </c>
       <c r="Q39" t="n">
-        <v>261.4759955177151</v>
+        <v>58.12628926490225</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>68.05591625202365</v>
+        <v>68.05591625202297</v>
       </c>
       <c r="K40" t="n">
         <v>188.1832857345043</v>
@@ -37709,7 +37709,7 @@
         <v>276.5872019687015</v>
       </c>
       <c r="M40" t="n">
-        <v>300.2883902611969</v>
+        <v>300.2883902611976</v>
       </c>
       <c r="N40" t="n">
         <v>296.5493962190144</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>132.5712415729477</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>354.2698369388149</v>
@@ -37870,7 +37870,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>22.62591014013509</v>
+        <v>155.197151713082</v>
       </c>
       <c r="O42" t="n">
         <v>567.8572638323437</v>
@@ -38037,7 +38037,7 @@
         <v>403.8018460375213</v>
       </c>
       <c r="Q44" t="n">
-        <v>225.8355960721407</v>
+        <v>225.835596072141</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>39.82685648670024</v>
+        <v>132.5712415729477</v>
       </c>
       <c r="K45" t="n">
         <v>354.2698369388149</v>
@@ -38104,13 +38104,13 @@
         <v>530.5386525050914</v>
       </c>
       <c r="M45" t="n">
-        <v>683.2275590587265</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>22.62591014013417</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>567.8572638323437</v>
       </c>
       <c r="P45" t="n">
         <v>446.7336029664077</v>
